--- a/notebooks/id_players.xlsx
+++ b/notebooks/id_players.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F737"/>
+  <dimension ref="A1:G737"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,12 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>nome_jogador</t>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>time_jogador</t>
         </is>
       </c>
     </row>
@@ -479,6 +484,7 @@
         <v>50</v>
       </c>
       <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -499,6 +505,7 @@
         <v>50</v>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -519,6 +526,7 @@
         <v>50</v>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -539,6 +547,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -559,6 +568,7 @@
         <v>50</v>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -579,6 +589,7 @@
         <v>50</v>
       </c>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -599,6 +610,7 @@
         <v>50</v>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -619,6 +631,7 @@
         <v>50</v>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -639,6 +652,7 @@
         <v>50</v>
       </c>
       <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -659,6 +673,7 @@
         <v>50</v>
       </c>
       <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -679,6 +694,7 @@
         <v>50</v>
       </c>
       <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -699,6 +715,7 @@
         <v>50</v>
       </c>
       <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -719,6 +736,7 @@
         <v>50</v>
       </c>
       <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -739,6 +757,7 @@
         <v>50</v>
       </c>
       <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -759,6 +778,7 @@
         <v>50</v>
       </c>
       <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -779,6 +799,7 @@
         <v>50</v>
       </c>
       <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -799,6 +820,7 @@
         <v>50</v>
       </c>
       <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -819,6 +841,7 @@
         <v>50</v>
       </c>
       <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -839,6 +862,7 @@
         <v>50</v>
       </c>
       <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -859,6 +883,7 @@
         <v>50</v>
       </c>
       <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -879,6 +904,7 @@
         <v>50</v>
       </c>
       <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -899,6 +925,7 @@
         <v>50</v>
       </c>
       <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -919,6 +946,7 @@
         <v>50</v>
       </c>
       <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -939,6 +967,7 @@
         <v>50</v>
       </c>
       <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -959,6 +988,7 @@
         <v>50</v>
       </c>
       <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -979,6 +1009,7 @@
         <v>50</v>
       </c>
       <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -999,6 +1030,7 @@
         <v>50</v>
       </c>
       <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1019,6 +1051,7 @@
         <v>50</v>
       </c>
       <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1039,6 +1072,7 @@
         <v>50</v>
       </c>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1059,6 +1093,7 @@
         <v>50</v>
       </c>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1079,6 +1114,7 @@
         <v>50</v>
       </c>
       <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1099,6 +1135,7 @@
         <v>50</v>
       </c>
       <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1119,6 +1156,7 @@
         <v>50</v>
       </c>
       <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1139,6 +1177,7 @@
         <v>50</v>
       </c>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1159,6 +1198,7 @@
         <v>50</v>
       </c>
       <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1179,6 +1219,7 @@
         <v>50</v>
       </c>
       <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1199,6 +1240,7 @@
         <v>50</v>
       </c>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1219,6 +1261,7 @@
         <v>50</v>
       </c>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1239,6 +1282,7 @@
         <v>50</v>
       </c>
       <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1259,6 +1303,7 @@
         <v>50</v>
       </c>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1279,6 +1324,7 @@
         <v>50</v>
       </c>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1299,6 +1345,7 @@
         <v>50</v>
       </c>
       <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1319,6 +1366,7 @@
         <v>50</v>
       </c>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1339,6 +1387,7 @@
         <v>50</v>
       </c>
       <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1359,6 +1408,7 @@
         <v>50</v>
       </c>
       <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1379,6 +1429,7 @@
         <v>50</v>
       </c>
       <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1399,6 +1450,7 @@
         <v>50</v>
       </c>
       <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1419,6 +1471,7 @@
         <v>50</v>
       </c>
       <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1439,6 +1492,7 @@
         <v>50</v>
       </c>
       <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1459,6 +1513,7 @@
         <v>50</v>
       </c>
       <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1479,6 +1534,7 @@
         <v>50</v>
       </c>
       <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1499,6 +1555,7 @@
         <v>50</v>
       </c>
       <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1519,6 +1576,7 @@
         <v>50</v>
       </c>
       <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1539,6 +1597,7 @@
         <v>50</v>
       </c>
       <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1559,6 +1618,7 @@
         <v>50</v>
       </c>
       <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1579,6 +1639,7 @@
         <v>50</v>
       </c>
       <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1599,6 +1660,7 @@
         <v>50</v>
       </c>
       <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1619,6 +1681,7 @@
         <v>50</v>
       </c>
       <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1639,6 +1702,7 @@
         <v>50</v>
       </c>
       <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1659,6 +1723,7 @@
         <v>50</v>
       </c>
       <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1679,6 +1744,7 @@
         <v>50</v>
       </c>
       <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1699,6 +1765,7 @@
         <v>50</v>
       </c>
       <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1719,6 +1786,7 @@
         <v>50</v>
       </c>
       <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1739,6 +1807,7 @@
         <v>50</v>
       </c>
       <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1759,6 +1828,7 @@
         <v>50</v>
       </c>
       <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1779,6 +1849,7 @@
         <v>50</v>
       </c>
       <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1799,6 +1870,7 @@
         <v>50</v>
       </c>
       <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -1819,6 +1891,7 @@
         <v>50</v>
       </c>
       <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -1839,6 +1912,7 @@
         <v>50</v>
       </c>
       <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -1859,6 +1933,7 @@
         <v>50</v>
       </c>
       <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -1879,6 +1954,7 @@
         <v>50</v>
       </c>
       <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -1899,6 +1975,7 @@
         <v>50</v>
       </c>
       <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -1919,6 +1996,7 @@
         <v>50</v>
       </c>
       <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -1939,6 +2017,7 @@
         <v>50</v>
       </c>
       <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -1959,6 +2038,7 @@
         <v>50</v>
       </c>
       <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -1979,6 +2059,7 @@
         <v>50</v>
       </c>
       <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -1999,6 +2080,7 @@
         <v>50</v>
       </c>
       <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2019,6 +2101,7 @@
         <v>50</v>
       </c>
       <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2039,6 +2122,7 @@
         <v>50</v>
       </c>
       <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2059,6 +2143,7 @@
         <v>50</v>
       </c>
       <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2079,6 +2164,7 @@
         <v>50</v>
       </c>
       <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2099,6 +2185,7 @@
         <v>50</v>
       </c>
       <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2119,6 +2206,7 @@
         <v>50</v>
       </c>
       <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2139,6 +2227,7 @@
         <v>50</v>
       </c>
       <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2159,6 +2248,7 @@
         <v>50</v>
       </c>
       <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2179,6 +2269,7 @@
         <v>50</v>
       </c>
       <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2199,6 +2290,7 @@
         <v>50</v>
       </c>
       <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2219,6 +2311,7 @@
         <v>50</v>
       </c>
       <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2239,6 +2332,7 @@
         <v>50</v>
       </c>
       <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2259,6 +2353,7 @@
         <v>50</v>
       </c>
       <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2279,6 +2374,7 @@
         <v>50</v>
       </c>
       <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2299,6 +2395,7 @@
         <v>50</v>
       </c>
       <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2319,6 +2416,7 @@
         <v>50</v>
       </c>
       <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2339,6 +2437,7 @@
         <v>50</v>
       </c>
       <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2359,6 +2458,7 @@
         <v>50</v>
       </c>
       <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2379,6 +2479,7 @@
         <v>50</v>
       </c>
       <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2399,6 +2500,7 @@
         <v>50</v>
       </c>
       <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2419,6 +2521,7 @@
         <v>50</v>
       </c>
       <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2439,6 +2542,7 @@
         <v>50</v>
       </c>
       <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2459,6 +2563,7 @@
         <v>50</v>
       </c>
       <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2479,6 +2584,7 @@
         <v>50</v>
       </c>
       <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2499,6 +2605,7 @@
         <v>50</v>
       </c>
       <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2519,6 +2626,7 @@
         <v>50</v>
       </c>
       <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2539,6 +2647,7 @@
         <v>50</v>
       </c>
       <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2559,6 +2668,7 @@
         <v>50</v>
       </c>
       <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2579,6 +2689,7 @@
         <v>50</v>
       </c>
       <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2599,6 +2710,7 @@
         <v>50</v>
       </c>
       <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2619,6 +2731,7 @@
         <v>50</v>
       </c>
       <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2639,6 +2752,7 @@
         <v>50</v>
       </c>
       <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2659,6 +2773,7 @@
         <v>50</v>
       </c>
       <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -2679,6 +2794,7 @@
         <v>50</v>
       </c>
       <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -2699,6 +2815,7 @@
         <v>50</v>
       </c>
       <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -2719,6 +2836,7 @@
         <v>50</v>
       </c>
       <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -2739,6 +2857,7 @@
         <v>50</v>
       </c>
       <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -2759,6 +2878,7 @@
         <v>50</v>
       </c>
       <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -2779,6 +2899,7 @@
         <v>50</v>
       </c>
       <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -2799,6 +2920,7 @@
         <v>50</v>
       </c>
       <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -2819,6 +2941,7 @@
         <v>50</v>
       </c>
       <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -2839,6 +2962,7 @@
         <v>50</v>
       </c>
       <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -2859,6 +2983,7 @@
         <v>50</v>
       </c>
       <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -2879,6 +3004,7 @@
         <v>50</v>
       </c>
       <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -2899,6 +3025,7 @@
         <v>50</v>
       </c>
       <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -2919,6 +3046,7 @@
         <v>50</v>
       </c>
       <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -2939,6 +3067,7 @@
         <v>50</v>
       </c>
       <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -2959,6 +3088,7 @@
         <v>50</v>
       </c>
       <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -2979,6 +3109,7 @@
         <v>50</v>
       </c>
       <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -2999,6 +3130,7 @@
         <v>50</v>
       </c>
       <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3019,6 +3151,7 @@
         <v>50</v>
       </c>
       <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3039,6 +3172,7 @@
         <v>50</v>
       </c>
       <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3059,6 +3193,7 @@
         <v>50</v>
       </c>
       <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3079,6 +3214,7 @@
         <v>50</v>
       </c>
       <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3099,6 +3235,7 @@
         <v>50</v>
       </c>
       <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3119,6 +3256,7 @@
         <v>50</v>
       </c>
       <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3139,6 +3277,7 @@
         <v>50</v>
       </c>
       <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3159,6 +3298,7 @@
         <v>50</v>
       </c>
       <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3179,6 +3319,7 @@
         <v>50</v>
       </c>
       <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3199,6 +3340,7 @@
         <v>50</v>
       </c>
       <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3219,6 +3361,7 @@
         <v>50</v>
       </c>
       <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3239,6 +3382,7 @@
         <v>50</v>
       </c>
       <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3259,6 +3403,7 @@
         <v>50</v>
       </c>
       <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3279,6 +3424,7 @@
         <v>50</v>
       </c>
       <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3299,6 +3445,7 @@
         <v>50</v>
       </c>
       <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3319,6 +3466,7 @@
         <v>50</v>
       </c>
       <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3339,6 +3487,7 @@
         <v>50</v>
       </c>
       <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3359,6 +3508,7 @@
         <v>50</v>
       </c>
       <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3379,6 +3529,7 @@
         <v>50</v>
       </c>
       <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3399,6 +3550,7 @@
         <v>50</v>
       </c>
       <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3419,6 +3571,7 @@
         <v>50</v>
       </c>
       <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3439,6 +3592,7 @@
         <v>50</v>
       </c>
       <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3459,6 +3613,7 @@
         <v>50</v>
       </c>
       <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3479,6 +3634,7 @@
         <v>50</v>
       </c>
       <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3499,6 +3655,7 @@
         <v>50</v>
       </c>
       <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3519,6 +3676,7 @@
         <v>50</v>
       </c>
       <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3539,6 +3697,7 @@
         <v>50</v>
       </c>
       <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -3559,6 +3718,7 @@
         <v>50</v>
       </c>
       <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -3579,6 +3739,7 @@
         <v>50</v>
       </c>
       <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -3599,6 +3760,7 @@
         <v>50</v>
       </c>
       <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -3619,6 +3781,7 @@
         <v>50</v>
       </c>
       <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -3639,6 +3802,7 @@
         <v>50</v>
       </c>
       <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -3659,6 +3823,7 @@
         <v>50</v>
       </c>
       <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -3679,6 +3844,7 @@
         <v>50</v>
       </c>
       <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -3699,6 +3865,7 @@
         <v>50</v>
       </c>
       <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -3719,6 +3886,7 @@
         <v>50</v>
       </c>
       <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -3739,6 +3907,7 @@
         <v>50</v>
       </c>
       <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -3759,6 +3928,7 @@
         <v>50</v>
       </c>
       <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -3779,6 +3949,7 @@
         <v>50</v>
       </c>
       <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -3799,6 +3970,7 @@
         <v>50</v>
       </c>
       <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -3819,6 +3991,7 @@
         <v>50</v>
       </c>
       <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -3839,6 +4012,7 @@
         <v>50</v>
       </c>
       <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -3859,6 +4033,7 @@
         <v>50</v>
       </c>
       <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -3879,6 +4054,7 @@
         <v>50</v>
       </c>
       <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -3899,6 +4075,7 @@
         <v>50</v>
       </c>
       <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -3919,6 +4096,7 @@
         <v>50</v>
       </c>
       <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -3939,6 +4117,7 @@
         <v>50</v>
       </c>
       <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -3959,6 +4138,7 @@
         <v>50</v>
       </c>
       <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -3979,6 +4159,7 @@
         <v>50</v>
       </c>
       <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -3999,6 +4180,7 @@
         <v>50</v>
       </c>
       <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4019,6 +4201,7 @@
         <v>50</v>
       </c>
       <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4039,6 +4222,7 @@
         <v>50</v>
       </c>
       <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4059,6 +4243,7 @@
         <v>50</v>
       </c>
       <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4079,6 +4264,7 @@
         <v>50</v>
       </c>
       <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4099,6 +4285,7 @@
         <v>50</v>
       </c>
       <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4119,6 +4306,7 @@
         <v>50</v>
       </c>
       <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4139,6 +4327,7 @@
         <v>50</v>
       </c>
       <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4159,6 +4348,7 @@
         <v>50</v>
       </c>
       <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4179,6 +4369,7 @@
         <v>50</v>
       </c>
       <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4199,6 +4390,7 @@
         <v>50</v>
       </c>
       <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4219,6 +4411,7 @@
         <v>50</v>
       </c>
       <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4239,6 +4432,7 @@
         <v>50</v>
       </c>
       <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4259,6 +4453,7 @@
         <v>50</v>
       </c>
       <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4279,6 +4474,7 @@
         <v>50</v>
       </c>
       <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4299,6 +4495,7 @@
         <v>50</v>
       </c>
       <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4319,6 +4516,7 @@
         <v>50</v>
       </c>
       <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4339,6 +4537,7 @@
         <v>50</v>
       </c>
       <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4359,6 +4558,7 @@
         <v>50</v>
       </c>
       <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4379,6 +4579,7 @@
         <v>50</v>
       </c>
       <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4399,6 +4600,7 @@
         <v>50</v>
       </c>
       <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -4419,6 +4621,7 @@
         <v>50</v>
       </c>
       <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -4439,6 +4642,7 @@
         <v>50</v>
       </c>
       <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -4459,6 +4663,7 @@
         <v>50</v>
       </c>
       <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -4479,6 +4684,7 @@
         <v>50</v>
       </c>
       <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -4499,6 +4705,7 @@
         <v>50</v>
       </c>
       <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -4519,6 +4726,7 @@
         <v>50</v>
       </c>
       <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -4539,6 +4747,7 @@
         <v>50</v>
       </c>
       <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -4559,6 +4768,7 @@
         <v>50</v>
       </c>
       <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -4579,6 +4789,7 @@
         <v>50</v>
       </c>
       <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -4599,6 +4810,7 @@
         <v>50</v>
       </c>
       <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -4619,6 +4831,7 @@
         <v>50</v>
       </c>
       <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -4639,6 +4852,7 @@
         <v>50</v>
       </c>
       <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -4659,6 +4873,7 @@
         <v>50</v>
       </c>
       <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -4679,6 +4894,7 @@
         <v>50</v>
       </c>
       <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -4699,6 +4915,7 @@
         <v>50</v>
       </c>
       <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -4719,6 +4936,7 @@
         <v>50</v>
       </c>
       <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -4739,6 +4957,7 @@
         <v>50</v>
       </c>
       <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -4759,6 +4978,7 @@
         <v>50</v>
       </c>
       <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -4779,6 +4999,7 @@
         <v>50</v>
       </c>
       <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -4799,6 +5020,7 @@
         <v>50</v>
       </c>
       <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -4819,6 +5041,7 @@
         <v>50</v>
       </c>
       <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -4839,6 +5062,7 @@
         <v>50</v>
       </c>
       <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -4859,6 +5083,7 @@
         <v>50</v>
       </c>
       <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -4879,6 +5104,7 @@
         <v>50</v>
       </c>
       <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -4899,6 +5125,7 @@
         <v>50</v>
       </c>
       <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -4919,6 +5146,7 @@
         <v>50</v>
       </c>
       <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -4939,6 +5167,7 @@
         <v>50</v>
       </c>
       <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -4959,6 +5188,7 @@
         <v>50</v>
       </c>
       <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -4979,6 +5209,7 @@
         <v>50</v>
       </c>
       <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -4999,6 +5230,7 @@
         <v>50</v>
       </c>
       <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5019,6 +5251,7 @@
         <v>50</v>
       </c>
       <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -5039,6 +5272,7 @@
         <v>50</v>
       </c>
       <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -5059,6 +5293,7 @@
         <v>50</v>
       </c>
       <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -5079,6 +5314,7 @@
         <v>50</v>
       </c>
       <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -5099,6 +5335,7 @@
         <v>50</v>
       </c>
       <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -5119,6 +5356,7 @@
         <v>50</v>
       </c>
       <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -5139,6 +5377,7 @@
         <v>50</v>
       </c>
       <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -5159,6 +5398,7 @@
         <v>50</v>
       </c>
       <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -5179,6 +5419,7 @@
         <v>50</v>
       </c>
       <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -5199,6 +5440,7 @@
         <v>50</v>
       </c>
       <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -5219,6 +5461,7 @@
         <v>50</v>
       </c>
       <c r="F239" t="inlineStr"/>
+      <c r="G239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -5239,6 +5482,7 @@
         <v>50</v>
       </c>
       <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -5259,6 +5503,7 @@
         <v>50</v>
       </c>
       <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -5279,6 +5524,7 @@
         <v>50</v>
       </c>
       <c r="F242" t="inlineStr"/>
+      <c r="G242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -5299,6 +5545,7 @@
         <v>50</v>
       </c>
       <c r="F243" t="inlineStr"/>
+      <c r="G243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -5319,6 +5566,7 @@
         <v>50</v>
       </c>
       <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -5339,6 +5587,7 @@
         <v>50</v>
       </c>
       <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -5359,6 +5608,7 @@
         <v>50</v>
       </c>
       <c r="F246" t="inlineStr"/>
+      <c r="G246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -5379,6 +5629,7 @@
         <v>50</v>
       </c>
       <c r="F247" t="inlineStr"/>
+      <c r="G247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -5399,6 +5650,7 @@
         <v>50</v>
       </c>
       <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -5419,6 +5671,7 @@
         <v>50</v>
       </c>
       <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -5439,6 +5692,7 @@
         <v>50</v>
       </c>
       <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -5459,6 +5713,7 @@
         <v>50</v>
       </c>
       <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -5479,6 +5734,7 @@
         <v>50</v>
       </c>
       <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -5499,6 +5755,7 @@
         <v>50</v>
       </c>
       <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -5519,6 +5776,7 @@
         <v>50</v>
       </c>
       <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -5539,6 +5797,7 @@
         <v>50</v>
       </c>
       <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -5559,6 +5818,7 @@
         <v>50</v>
       </c>
       <c r="F256" t="inlineStr"/>
+      <c r="G256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -5579,6 +5839,7 @@
         <v>50</v>
       </c>
       <c r="F257" t="inlineStr"/>
+      <c r="G257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -5599,6 +5860,7 @@
         <v>50</v>
       </c>
       <c r="F258" t="inlineStr"/>
+      <c r="G258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -5619,6 +5881,7 @@
         <v>50</v>
       </c>
       <c r="F259" t="inlineStr"/>
+      <c r="G259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -5639,6 +5902,7 @@
         <v>50</v>
       </c>
       <c r="F260" t="inlineStr"/>
+      <c r="G260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -5659,6 +5923,7 @@
         <v>50</v>
       </c>
       <c r="F261" t="inlineStr"/>
+      <c r="G261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -5679,6 +5944,7 @@
         <v>50</v>
       </c>
       <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -5699,6 +5965,7 @@
         <v>50</v>
       </c>
       <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -5719,6 +5986,7 @@
         <v>50</v>
       </c>
       <c r="F264" t="inlineStr"/>
+      <c r="G264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -5739,6 +6007,7 @@
         <v>50</v>
       </c>
       <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -5759,6 +6028,7 @@
         <v>50</v>
       </c>
       <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -5779,6 +6049,7 @@
         <v>50</v>
       </c>
       <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -5799,6 +6070,7 @@
         <v>50</v>
       </c>
       <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -5819,6 +6091,7 @@
         <v>50</v>
       </c>
       <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -5839,6 +6112,7 @@
         <v>50</v>
       </c>
       <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -5859,6 +6133,7 @@
         <v>50</v>
       </c>
       <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -5879,6 +6154,7 @@
         <v>50</v>
       </c>
       <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -5899,6 +6175,7 @@
         <v>50</v>
       </c>
       <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -5919,6 +6196,7 @@
         <v>50</v>
       </c>
       <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -5939,6 +6217,7 @@
         <v>50</v>
       </c>
       <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -5959,6 +6238,7 @@
         <v>50</v>
       </c>
       <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -5979,6 +6259,7 @@
         <v>50</v>
       </c>
       <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -5999,6 +6280,7 @@
         <v>50</v>
       </c>
       <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -6019,6 +6301,7 @@
         <v>50</v>
       </c>
       <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -6039,6 +6322,7 @@
         <v>50</v>
       </c>
       <c r="F280" t="inlineStr"/>
+      <c r="G280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -6059,6 +6343,7 @@
         <v>50</v>
       </c>
       <c r="F281" t="inlineStr"/>
+      <c r="G281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -6079,6 +6364,7 @@
         <v>50</v>
       </c>
       <c r="F282" t="inlineStr"/>
+      <c r="G282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -6099,6 +6385,7 @@
         <v>50</v>
       </c>
       <c r="F283" t="inlineStr"/>
+      <c r="G283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -6119,6 +6406,7 @@
         <v>50</v>
       </c>
       <c r="F284" t="inlineStr"/>
+      <c r="G284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -6139,6 +6427,7 @@
         <v>50</v>
       </c>
       <c r="F285" t="inlineStr"/>
+      <c r="G285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -6159,6 +6448,7 @@
         <v>50</v>
       </c>
       <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -6179,6 +6469,7 @@
         <v>50</v>
       </c>
       <c r="F287" t="inlineStr"/>
+      <c r="G287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -6199,6 +6490,7 @@
         <v>50</v>
       </c>
       <c r="F288" t="inlineStr"/>
+      <c r="G288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -6219,6 +6511,7 @@
         <v>50</v>
       </c>
       <c r="F289" t="inlineStr"/>
+      <c r="G289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -6239,6 +6532,7 @@
         <v>50</v>
       </c>
       <c r="F290" t="inlineStr"/>
+      <c r="G290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -6259,6 +6553,7 @@
         <v>50</v>
       </c>
       <c r="F291" t="inlineStr"/>
+      <c r="G291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -6279,6 +6574,7 @@
         <v>50</v>
       </c>
       <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -6299,6 +6595,7 @@
         <v>50</v>
       </c>
       <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -6319,6 +6616,7 @@
         <v>50</v>
       </c>
       <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -6339,6 +6637,7 @@
         <v>50</v>
       </c>
       <c r="F295" t="inlineStr"/>
+      <c r="G295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -6359,6 +6658,7 @@
         <v>50</v>
       </c>
       <c r="F296" t="inlineStr"/>
+      <c r="G296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -6379,6 +6679,7 @@
         <v>50</v>
       </c>
       <c r="F297" t="inlineStr"/>
+      <c r="G297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -6399,6 +6700,7 @@
         <v>50</v>
       </c>
       <c r="F298" t="inlineStr"/>
+      <c r="G298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -6419,6 +6721,7 @@
         <v>50</v>
       </c>
       <c r="F299" t="inlineStr"/>
+      <c r="G299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -6439,6 +6742,7 @@
         <v>50</v>
       </c>
       <c r="F300" t="inlineStr"/>
+      <c r="G300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -6459,6 +6763,7 @@
         <v>50</v>
       </c>
       <c r="F301" t="inlineStr"/>
+      <c r="G301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -6479,6 +6784,7 @@
         <v>50</v>
       </c>
       <c r="F302" t="inlineStr"/>
+      <c r="G302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -6499,6 +6805,7 @@
         <v>50</v>
       </c>
       <c r="F303" t="inlineStr"/>
+      <c r="G303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -6519,6 +6826,7 @@
         <v>50</v>
       </c>
       <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -6539,6 +6847,7 @@
         <v>50</v>
       </c>
       <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -6559,6 +6868,7 @@
         <v>50</v>
       </c>
       <c r="F306" t="inlineStr"/>
+      <c r="G306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -6579,6 +6889,7 @@
         <v>50</v>
       </c>
       <c r="F307" t="inlineStr"/>
+      <c r="G307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -6599,6 +6910,7 @@
         <v>50</v>
       </c>
       <c r="F308" t="inlineStr"/>
+      <c r="G308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -6619,6 +6931,7 @@
         <v>50</v>
       </c>
       <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -6639,6 +6952,7 @@
         <v>50</v>
       </c>
       <c r="F310" t="inlineStr"/>
+      <c r="G310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -6659,6 +6973,7 @@
         <v>50</v>
       </c>
       <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -6679,6 +6994,7 @@
         <v>50</v>
       </c>
       <c r="F312" t="inlineStr"/>
+      <c r="G312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -6699,6 +7015,7 @@
         <v>50</v>
       </c>
       <c r="F313" t="inlineStr"/>
+      <c r="G313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -6719,6 +7036,7 @@
         <v>50</v>
       </c>
       <c r="F314" t="inlineStr"/>
+      <c r="G314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -6739,6 +7057,7 @@
         <v>50</v>
       </c>
       <c r="F315" t="inlineStr"/>
+      <c r="G315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -6759,6 +7078,7 @@
         <v>50</v>
       </c>
       <c r="F316" t="inlineStr"/>
+      <c r="G316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -6779,6 +7099,7 @@
         <v>50</v>
       </c>
       <c r="F317" t="inlineStr"/>
+      <c r="G317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -6799,6 +7120,7 @@
         <v>50</v>
       </c>
       <c r="F318" t="inlineStr"/>
+      <c r="G318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -6819,6 +7141,7 @@
         <v>50</v>
       </c>
       <c r="F319" t="inlineStr"/>
+      <c r="G319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -6839,6 +7162,7 @@
         <v>50</v>
       </c>
       <c r="F320" t="inlineStr"/>
+      <c r="G320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -6859,6 +7183,7 @@
         <v>50</v>
       </c>
       <c r="F321" t="inlineStr"/>
+      <c r="G321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -6879,6 +7204,7 @@
         <v>50</v>
       </c>
       <c r="F322" t="inlineStr"/>
+      <c r="G322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -6899,6 +7225,7 @@
         <v>50</v>
       </c>
       <c r="F323" t="inlineStr"/>
+      <c r="G323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -6919,6 +7246,7 @@
         <v>50</v>
       </c>
       <c r="F324" t="inlineStr"/>
+      <c r="G324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -6939,6 +7267,7 @@
         <v>50</v>
       </c>
       <c r="F325" t="inlineStr"/>
+      <c r="G325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -6959,6 +7288,7 @@
         <v>50</v>
       </c>
       <c r="F326" t="inlineStr"/>
+      <c r="G326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -6979,6 +7309,7 @@
         <v>50</v>
       </c>
       <c r="F327" t="inlineStr"/>
+      <c r="G327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -6999,6 +7330,7 @@
         <v>50</v>
       </c>
       <c r="F328" t="inlineStr"/>
+      <c r="G328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -7019,6 +7351,7 @@
         <v>50</v>
       </c>
       <c r="F329" t="inlineStr"/>
+      <c r="G329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -7039,6 +7372,7 @@
         <v>50</v>
       </c>
       <c r="F330" t="inlineStr"/>
+      <c r="G330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -7059,6 +7393,7 @@
         <v>50</v>
       </c>
       <c r="F331" t="inlineStr"/>
+      <c r="G331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -7079,6 +7414,7 @@
         <v>50</v>
       </c>
       <c r="F332" t="inlineStr"/>
+      <c r="G332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -7099,6 +7435,7 @@
         <v>50</v>
       </c>
       <c r="F333" t="inlineStr"/>
+      <c r="G333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -7119,6 +7456,7 @@
         <v>50</v>
       </c>
       <c r="F334" t="inlineStr"/>
+      <c r="G334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -7139,6 +7477,7 @@
         <v>50</v>
       </c>
       <c r="F335" t="inlineStr"/>
+      <c r="G335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -7159,6 +7498,7 @@
         <v>50</v>
       </c>
       <c r="F336" t="inlineStr"/>
+      <c r="G336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -7179,6 +7519,7 @@
         <v>50</v>
       </c>
       <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -7199,6 +7540,7 @@
         <v>50</v>
       </c>
       <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -7219,6 +7561,7 @@
         <v>50</v>
       </c>
       <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -7239,6 +7582,7 @@
         <v>50</v>
       </c>
       <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -7259,6 +7603,7 @@
         <v>50</v>
       </c>
       <c r="F341" t="inlineStr"/>
+      <c r="G341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -7279,6 +7624,7 @@
         <v>50</v>
       </c>
       <c r="F342" t="inlineStr"/>
+      <c r="G342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -7299,6 +7645,7 @@
         <v>50</v>
       </c>
       <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -7319,6 +7666,7 @@
         <v>50</v>
       </c>
       <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -7339,6 +7687,7 @@
         <v>50</v>
       </c>
       <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -7359,6 +7708,7 @@
         <v>50</v>
       </c>
       <c r="F346" t="inlineStr"/>
+      <c r="G346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -7379,6 +7729,7 @@
         <v>50</v>
       </c>
       <c r="F347" t="inlineStr"/>
+      <c r="G347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -7399,6 +7750,7 @@
         <v>50</v>
       </c>
       <c r="F348" t="inlineStr"/>
+      <c r="G348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -7419,6 +7771,7 @@
         <v>50</v>
       </c>
       <c r="F349" t="inlineStr"/>
+      <c r="G349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -7439,6 +7792,7 @@
         <v>50</v>
       </c>
       <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -7459,6 +7813,7 @@
         <v>50</v>
       </c>
       <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -7479,6 +7834,7 @@
         <v>50</v>
       </c>
       <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -7499,6 +7855,7 @@
         <v>50</v>
       </c>
       <c r="F353" t="inlineStr"/>
+      <c r="G353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -7519,6 +7876,7 @@
         <v>50</v>
       </c>
       <c r="F354" t="inlineStr"/>
+      <c r="G354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -7539,6 +7897,7 @@
         <v>50</v>
       </c>
       <c r="F355" t="inlineStr"/>
+      <c r="G355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -7559,6 +7918,7 @@
         <v>50</v>
       </c>
       <c r="F356" t="inlineStr"/>
+      <c r="G356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -7579,6 +7939,7 @@
         <v>50</v>
       </c>
       <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -7599,6 +7960,7 @@
         <v>50</v>
       </c>
       <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -7619,6 +7981,7 @@
         <v>50</v>
       </c>
       <c r="F359" t="inlineStr"/>
+      <c r="G359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -7639,6 +8002,7 @@
         <v>50</v>
       </c>
       <c r="F360" t="inlineStr"/>
+      <c r="G360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -7659,6 +8023,7 @@
         <v>50</v>
       </c>
       <c r="F361" t="inlineStr"/>
+      <c r="G361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -7679,6 +8044,7 @@
         <v>50</v>
       </c>
       <c r="F362" t="inlineStr"/>
+      <c r="G362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -7699,6 +8065,7 @@
         <v>50</v>
       </c>
       <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -7719,6 +8086,7 @@
         <v>50</v>
       </c>
       <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -7739,6 +8107,7 @@
         <v>50</v>
       </c>
       <c r="F365" t="inlineStr"/>
+      <c r="G365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -7759,6 +8128,7 @@
         <v>50</v>
       </c>
       <c r="F366" t="inlineStr"/>
+      <c r="G366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -7779,6 +8149,7 @@
         <v>50</v>
       </c>
       <c r="F367" t="inlineStr"/>
+      <c r="G367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -7799,6 +8170,7 @@
         <v>50</v>
       </c>
       <c r="F368" t="inlineStr"/>
+      <c r="G368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -7819,6 +8191,7 @@
         <v>50</v>
       </c>
       <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -7839,6 +8212,7 @@
         <v>50</v>
       </c>
       <c r="F370" t="inlineStr"/>
+      <c r="G370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -7859,6 +8233,7 @@
         <v>50</v>
       </c>
       <c r="F371" t="inlineStr"/>
+      <c r="G371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -7879,6 +8254,7 @@
         <v>50</v>
       </c>
       <c r="F372" t="inlineStr"/>
+      <c r="G372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -7899,6 +8275,7 @@
         <v>50</v>
       </c>
       <c r="F373" t="inlineStr"/>
+      <c r="G373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -7919,6 +8296,7 @@
         <v>50</v>
       </c>
       <c r="F374" t="inlineStr"/>
+      <c r="G374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -7939,6 +8317,7 @@
         <v>50</v>
       </c>
       <c r="F375" t="inlineStr"/>
+      <c r="G375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -7959,6 +8338,7 @@
         <v>50</v>
       </c>
       <c r="F376" t="inlineStr"/>
+      <c r="G376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -7979,6 +8359,7 @@
         <v>50</v>
       </c>
       <c r="F377" t="inlineStr"/>
+      <c r="G377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -7999,6 +8380,7 @@
         <v>50</v>
       </c>
       <c r="F378" t="inlineStr"/>
+      <c r="G378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -8019,6 +8401,7 @@
         <v>50</v>
       </c>
       <c r="F379" t="inlineStr"/>
+      <c r="G379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -8039,6 +8422,7 @@
         <v>50</v>
       </c>
       <c r="F380" t="inlineStr"/>
+      <c r="G380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -8059,6 +8443,7 @@
         <v>50</v>
       </c>
       <c r="F381" t="inlineStr"/>
+      <c r="G381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -8079,6 +8464,7 @@
         <v>50</v>
       </c>
       <c r="F382" t="inlineStr"/>
+      <c r="G382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -8099,6 +8485,7 @@
         <v>50</v>
       </c>
       <c r="F383" t="inlineStr"/>
+      <c r="G383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -8119,6 +8506,7 @@
         <v>50</v>
       </c>
       <c r="F384" t="inlineStr"/>
+      <c r="G384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -8139,6 +8527,7 @@
         <v>50</v>
       </c>
       <c r="F385" t="inlineStr"/>
+      <c r="G385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -8159,6 +8548,7 @@
         <v>50</v>
       </c>
       <c r="F386" t="inlineStr"/>
+      <c r="G386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -8179,6 +8569,7 @@
         <v>50</v>
       </c>
       <c r="F387" t="inlineStr"/>
+      <c r="G387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -8199,6 +8590,7 @@
         <v>50</v>
       </c>
       <c r="F388" t="inlineStr"/>
+      <c r="G388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -8219,6 +8611,7 @@
         <v>50</v>
       </c>
       <c r="F389" t="inlineStr"/>
+      <c r="G389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -8239,6 +8632,7 @@
         <v>50</v>
       </c>
       <c r="F390" t="inlineStr"/>
+      <c r="G390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -8259,6 +8653,7 @@
         <v>50</v>
       </c>
       <c r="F391" t="inlineStr"/>
+      <c r="G391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -8279,6 +8674,7 @@
         <v>50</v>
       </c>
       <c r="F392" t="inlineStr"/>
+      <c r="G392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -8299,6 +8695,7 @@
         <v>50</v>
       </c>
       <c r="F393" t="inlineStr"/>
+      <c r="G393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -8319,6 +8716,7 @@
         <v>50</v>
       </c>
       <c r="F394" t="inlineStr"/>
+      <c r="G394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -8339,6 +8737,7 @@
         <v>50</v>
       </c>
       <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -8359,6 +8758,7 @@
         <v>50</v>
       </c>
       <c r="F396" t="inlineStr"/>
+      <c r="G396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -8379,6 +8779,7 @@
         <v>50</v>
       </c>
       <c r="F397" t="inlineStr"/>
+      <c r="G397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -8399,6 +8800,7 @@
         <v>50</v>
       </c>
       <c r="F398" t="inlineStr"/>
+      <c r="G398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -8419,6 +8821,7 @@
         <v>50</v>
       </c>
       <c r="F399" t="inlineStr"/>
+      <c r="G399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -8439,6 +8842,7 @@
         <v>50</v>
       </c>
       <c r="F400" t="inlineStr"/>
+      <c r="G400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -8459,6 +8863,7 @@
         <v>50</v>
       </c>
       <c r="F401" t="inlineStr"/>
+      <c r="G401" t="inlineStr"/>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
@@ -8479,6 +8884,7 @@
         <v>50</v>
       </c>
       <c r="F402" t="inlineStr"/>
+      <c r="G402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -8499,6 +8905,7 @@
         <v>50</v>
       </c>
       <c r="F403" t="inlineStr"/>
+      <c r="G403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -8519,6 +8926,7 @@
         <v>50</v>
       </c>
       <c r="F404" t="inlineStr"/>
+      <c r="G404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -8539,6 +8947,7 @@
         <v>50</v>
       </c>
       <c r="F405" t="inlineStr"/>
+      <c r="G405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -8559,6 +8968,7 @@
         <v>50</v>
       </c>
       <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -8579,6 +8989,7 @@
         <v>50</v>
       </c>
       <c r="F407" t="inlineStr"/>
+      <c r="G407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -8599,6 +9010,7 @@
         <v>50</v>
       </c>
       <c r="F408" t="inlineStr"/>
+      <c r="G408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -8619,6 +9031,7 @@
         <v>50</v>
       </c>
       <c r="F409" t="inlineStr"/>
+      <c r="G409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -8639,6 +9052,7 @@
         <v>50</v>
       </c>
       <c r="F410" t="inlineStr"/>
+      <c r="G410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -8659,6 +9073,7 @@
         <v>50</v>
       </c>
       <c r="F411" t="inlineStr"/>
+      <c r="G411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -8679,6 +9094,7 @@
         <v>50</v>
       </c>
       <c r="F412" t="inlineStr"/>
+      <c r="G412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -8699,6 +9115,7 @@
         <v>50</v>
       </c>
       <c r="F413" t="inlineStr"/>
+      <c r="G413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -8719,6 +9136,7 @@
         <v>50</v>
       </c>
       <c r="F414" t="inlineStr"/>
+      <c r="G414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -8739,6 +9157,7 @@
         <v>50</v>
       </c>
       <c r="F415" t="inlineStr"/>
+      <c r="G415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -8759,6 +9178,7 @@
         <v>50</v>
       </c>
       <c r="F416" t="inlineStr"/>
+      <c r="G416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -8779,6 +9199,7 @@
         <v>50</v>
       </c>
       <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -8799,6 +9220,7 @@
         <v>50</v>
       </c>
       <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -8819,6 +9241,7 @@
         <v>50</v>
       </c>
       <c r="F419" t="inlineStr"/>
+      <c r="G419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -8839,6 +9262,7 @@
         <v>50</v>
       </c>
       <c r="F420" t="inlineStr"/>
+      <c r="G420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" s="1" t="n">
@@ -8859,6 +9283,7 @@
         <v>50</v>
       </c>
       <c r="F421" t="inlineStr"/>
+      <c r="G421" t="inlineStr"/>
     </row>
     <row r="422">
       <c r="A422" s="1" t="n">
@@ -8879,6 +9304,7 @@
         <v>50</v>
       </c>
       <c r="F422" t="inlineStr"/>
+      <c r="G422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -8899,6 +9325,7 @@
         <v>50</v>
       </c>
       <c r="F423" t="inlineStr"/>
+      <c r="G423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" s="1" t="n">
@@ -8919,6 +9346,7 @@
         <v>50</v>
       </c>
       <c r="F424" t="inlineStr"/>
+      <c r="G424" t="inlineStr"/>
     </row>
     <row r="425">
       <c r="A425" s="1" t="n">
@@ -8939,6 +9367,7 @@
         <v>50</v>
       </c>
       <c r="F425" t="inlineStr"/>
+      <c r="G425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -8959,6 +9388,7 @@
         <v>50</v>
       </c>
       <c r="F426" t="inlineStr"/>
+      <c r="G426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -8979,6 +9409,7 @@
         <v>50</v>
       </c>
       <c r="F427" t="inlineStr"/>
+      <c r="G427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -8999,6 +9430,7 @@
         <v>50</v>
       </c>
       <c r="F428" t="inlineStr"/>
+      <c r="G428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -9019,6 +9451,7 @@
         <v>50</v>
       </c>
       <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -9039,6 +9472,7 @@
         <v>50</v>
       </c>
       <c r="F430" t="inlineStr"/>
+      <c r="G430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -9059,6 +9493,7 @@
         <v>50</v>
       </c>
       <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -9079,6 +9514,7 @@
         <v>50</v>
       </c>
       <c r="F432" t="inlineStr"/>
+      <c r="G432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -9099,6 +9535,7 @@
         <v>50</v>
       </c>
       <c r="F433" t="inlineStr"/>
+      <c r="G433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -9119,6 +9556,7 @@
         <v>50</v>
       </c>
       <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -9139,6 +9577,7 @@
         <v>50</v>
       </c>
       <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -9159,6 +9598,7 @@
         <v>50</v>
       </c>
       <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -9179,6 +9619,7 @@
         <v>50</v>
       </c>
       <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -9199,6 +9640,7 @@
         <v>50</v>
       </c>
       <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -9219,6 +9661,7 @@
         <v>50</v>
       </c>
       <c r="F439" t="inlineStr"/>
+      <c r="G439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -9239,6 +9682,7 @@
         <v>50</v>
       </c>
       <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -9259,6 +9703,7 @@
         <v>50</v>
       </c>
       <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -9279,6 +9724,7 @@
         <v>50</v>
       </c>
       <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -9299,6 +9745,7 @@
         <v>50</v>
       </c>
       <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -9319,6 +9766,7 @@
         <v>50</v>
       </c>
       <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -9339,6 +9787,7 @@
         <v>50</v>
       </c>
       <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -9359,6 +9808,7 @@
         <v>50</v>
       </c>
       <c r="F446" t="inlineStr"/>
+      <c r="G446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -9379,6 +9829,7 @@
         <v>50</v>
       </c>
       <c r="F447" t="inlineStr"/>
+      <c r="G447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -9399,6 +9850,7 @@
         <v>50</v>
       </c>
       <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -9419,6 +9871,7 @@
         <v>50</v>
       </c>
       <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -9439,6 +9892,7 @@
         <v>50</v>
       </c>
       <c r="F450" t="inlineStr"/>
+      <c r="G450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -9459,6 +9913,7 @@
         <v>50</v>
       </c>
       <c r="F451" t="inlineStr"/>
+      <c r="G451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -9479,6 +9934,7 @@
         <v>50</v>
       </c>
       <c r="F452" t="inlineStr"/>
+      <c r="G452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -9499,6 +9955,7 @@
         <v>50</v>
       </c>
       <c r="F453" t="inlineStr"/>
+      <c r="G453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -9519,6 +9976,7 @@
         <v>50</v>
       </c>
       <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -9539,6 +9997,7 @@
         <v>50</v>
       </c>
       <c r="F455" t="inlineStr"/>
+      <c r="G455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -9559,6 +10018,7 @@
         <v>50</v>
       </c>
       <c r="F456" t="inlineStr"/>
+      <c r="G456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -9579,6 +10039,7 @@
         <v>50</v>
       </c>
       <c r="F457" t="inlineStr"/>
+      <c r="G457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -9599,6 +10060,7 @@
         <v>50</v>
       </c>
       <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -9619,6 +10081,7 @@
         <v>50</v>
       </c>
       <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" s="1" t="n">
@@ -9639,6 +10102,7 @@
         <v>50</v>
       </c>
       <c r="F460" t="inlineStr"/>
+      <c r="G460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -9659,6 +10123,7 @@
         <v>50</v>
       </c>
       <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -9679,6 +10144,7 @@
         <v>50</v>
       </c>
       <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -9699,6 +10165,7 @@
         <v>50</v>
       </c>
       <c r="F463" t="inlineStr"/>
+      <c r="G463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -9719,6 +10186,7 @@
         <v>50</v>
       </c>
       <c r="F464" t="inlineStr"/>
+      <c r="G464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -9739,6 +10207,7 @@
         <v>50</v>
       </c>
       <c r="F465" t="inlineStr"/>
+      <c r="G465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -9759,6 +10228,7 @@
         <v>50</v>
       </c>
       <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -9779,6 +10249,7 @@
         <v>50</v>
       </c>
       <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -9799,6 +10270,7 @@
         <v>50</v>
       </c>
       <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -9819,6 +10291,7 @@
         <v>50</v>
       </c>
       <c r="F469" t="inlineStr"/>
+      <c r="G469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -9839,6 +10312,7 @@
         <v>50</v>
       </c>
       <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -9859,6 +10333,7 @@
         <v>50</v>
       </c>
       <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -9879,6 +10354,7 @@
         <v>50</v>
       </c>
       <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -9899,6 +10375,7 @@
         <v>50</v>
       </c>
       <c r="F473" t="inlineStr"/>
+      <c r="G473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -9919,6 +10396,7 @@
         <v>50</v>
       </c>
       <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -9939,6 +10417,7 @@
         <v>50</v>
       </c>
       <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -9959,6 +10438,7 @@
         <v>50</v>
       </c>
       <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -9979,6 +10459,7 @@
         <v>50</v>
       </c>
       <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -9999,6 +10480,7 @@
         <v>50</v>
       </c>
       <c r="F478" t="inlineStr"/>
+      <c r="G478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -10019,6 +10501,7 @@
         <v>50</v>
       </c>
       <c r="F479" t="inlineStr"/>
+      <c r="G479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -10039,6 +10522,7 @@
         <v>50</v>
       </c>
       <c r="F480" t="inlineStr"/>
+      <c r="G480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -10059,6 +10543,7 @@
         <v>50</v>
       </c>
       <c r="F481" t="inlineStr"/>
+      <c r="G481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -10079,6 +10564,7 @@
         <v>50</v>
       </c>
       <c r="F482" t="inlineStr"/>
+      <c r="G482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -10099,6 +10585,7 @@
         <v>50</v>
       </c>
       <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -10119,6 +10606,7 @@
         <v>50</v>
       </c>
       <c r="F484" t="inlineStr"/>
+      <c r="G484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -10139,6 +10627,7 @@
         <v>50</v>
       </c>
       <c r="F485" t="inlineStr"/>
+      <c r="G485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -10159,6 +10648,7 @@
         <v>50</v>
       </c>
       <c r="F486" t="inlineStr"/>
+      <c r="G486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -10179,6 +10669,7 @@
         <v>50</v>
       </c>
       <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -10199,6 +10690,7 @@
         <v>50</v>
       </c>
       <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -10219,6 +10711,7 @@
         <v>50</v>
       </c>
       <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -10239,6 +10732,7 @@
         <v>50</v>
       </c>
       <c r="F490" t="inlineStr"/>
+      <c r="G490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -10259,6 +10753,7 @@
         <v>50</v>
       </c>
       <c r="F491" t="inlineStr"/>
+      <c r="G491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -10279,6 +10774,7 @@
         <v>50</v>
       </c>
       <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -10299,6 +10795,7 @@
         <v>50</v>
       </c>
       <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -10319,6 +10816,7 @@
         <v>50</v>
       </c>
       <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -10339,6 +10837,7 @@
         <v>50</v>
       </c>
       <c r="F495" t="inlineStr"/>
+      <c r="G495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -10359,6 +10858,7 @@
         <v>50</v>
       </c>
       <c r="F496" t="inlineStr"/>
+      <c r="G496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -10379,6 +10879,7 @@
         <v>50</v>
       </c>
       <c r="F497" t="inlineStr"/>
+      <c r="G497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -10399,6 +10900,7 @@
         <v>50</v>
       </c>
       <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -10419,6 +10921,7 @@
         <v>50</v>
       </c>
       <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -10439,6 +10942,7 @@
         <v>50</v>
       </c>
       <c r="F500" t="inlineStr"/>
+      <c r="G500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -10459,6 +10963,7 @@
         <v>50</v>
       </c>
       <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -10479,6 +10984,7 @@
         <v>50</v>
       </c>
       <c r="F502" t="inlineStr"/>
+      <c r="G502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -10499,6 +11005,7 @@
         <v>50</v>
       </c>
       <c r="F503" t="inlineStr"/>
+      <c r="G503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -10519,6 +11026,7 @@
         <v>50</v>
       </c>
       <c r="F504" t="inlineStr"/>
+      <c r="G504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -10539,6 +11047,7 @@
         <v>50</v>
       </c>
       <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -10559,6 +11068,7 @@
         <v>50</v>
       </c>
       <c r="F506" t="inlineStr"/>
+      <c r="G506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -10579,6 +11089,7 @@
         <v>50</v>
       </c>
       <c r="F507" t="inlineStr"/>
+      <c r="G507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -10599,6 +11110,7 @@
         <v>50</v>
       </c>
       <c r="F508" t="inlineStr"/>
+      <c r="G508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -10619,6 +11131,7 @@
         <v>50</v>
       </c>
       <c r="F509" t="inlineStr"/>
+      <c r="G509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -10639,6 +11152,7 @@
         <v>50</v>
       </c>
       <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -10659,6 +11173,7 @@
         <v>50</v>
       </c>
       <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -10679,6 +11194,7 @@
         <v>50</v>
       </c>
       <c r="F512" t="inlineStr"/>
+      <c r="G512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -10699,6 +11215,7 @@
         <v>50</v>
       </c>
       <c r="F513" t="inlineStr"/>
+      <c r="G513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -10719,6 +11236,7 @@
         <v>50</v>
       </c>
       <c r="F514" t="inlineStr"/>
+      <c r="G514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -10739,6 +11257,7 @@
         <v>50</v>
       </c>
       <c r="F515" t="inlineStr"/>
+      <c r="G515" t="inlineStr"/>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
@@ -10759,6 +11278,7 @@
         <v>50</v>
       </c>
       <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
@@ -10779,6 +11299,7 @@
         <v>50</v>
       </c>
       <c r="F517" t="inlineStr"/>
+      <c r="G517" t="inlineStr"/>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
@@ -10799,6 +11320,7 @@
         <v>50</v>
       </c>
       <c r="F518" t="inlineStr"/>
+      <c r="G518" t="inlineStr"/>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
@@ -10819,6 +11341,7 @@
         <v>50</v>
       </c>
       <c r="F519" t="inlineStr"/>
+      <c r="G519" t="inlineStr"/>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
@@ -10839,6 +11362,7 @@
         <v>50</v>
       </c>
       <c r="F520" t="inlineStr"/>
+      <c r="G520" t="inlineStr"/>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
@@ -10859,6 +11383,7 @@
         <v>50</v>
       </c>
       <c r="F521" t="inlineStr"/>
+      <c r="G521" t="inlineStr"/>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
@@ -10879,6 +11404,7 @@
         <v>50</v>
       </c>
       <c r="F522" t="inlineStr"/>
+      <c r="G522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
@@ -10899,6 +11425,7 @@
         <v>50</v>
       </c>
       <c r="F523" t="inlineStr"/>
+      <c r="G523" t="inlineStr"/>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
@@ -10919,6 +11446,7 @@
         <v>50</v>
       </c>
       <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr"/>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
@@ -10939,6 +11467,7 @@
         <v>50</v>
       </c>
       <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr"/>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
@@ -10959,6 +11488,7 @@
         <v>50</v>
       </c>
       <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr"/>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
@@ -10979,6 +11509,7 @@
         <v>50</v>
       </c>
       <c r="F527" t="inlineStr"/>
+      <c r="G527" t="inlineStr"/>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
@@ -10999,6 +11530,7 @@
         <v>50</v>
       </c>
       <c r="F528" t="inlineStr"/>
+      <c r="G528" t="inlineStr"/>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
@@ -11019,6 +11551,7 @@
         <v>50</v>
       </c>
       <c r="F529" t="inlineStr"/>
+      <c r="G529" t="inlineStr"/>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
@@ -11039,6 +11572,7 @@
         <v>50</v>
       </c>
       <c r="F530" t="inlineStr"/>
+      <c r="G530" t="inlineStr"/>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
@@ -11059,6 +11593,7 @@
         <v>50</v>
       </c>
       <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr"/>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
@@ -11079,6 +11614,7 @@
         <v>50</v>
       </c>
       <c r="F532" t="inlineStr"/>
+      <c r="G532" t="inlineStr"/>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
@@ -11099,6 +11635,7 @@
         <v>50</v>
       </c>
       <c r="F533" t="inlineStr"/>
+      <c r="G533" t="inlineStr"/>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
@@ -11119,6 +11656,7 @@
         <v>50</v>
       </c>
       <c r="F534" t="inlineStr"/>
+      <c r="G534" t="inlineStr"/>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
@@ -11139,6 +11677,7 @@
         <v>50</v>
       </c>
       <c r="F535" t="inlineStr"/>
+      <c r="G535" t="inlineStr"/>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
@@ -11159,6 +11698,7 @@
         <v>50</v>
       </c>
       <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr"/>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
@@ -11179,6 +11719,7 @@
         <v>50</v>
       </c>
       <c r="F537" t="inlineStr"/>
+      <c r="G537" t="inlineStr"/>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
@@ -11199,6 +11740,7 @@
         <v>50</v>
       </c>
       <c r="F538" t="inlineStr"/>
+      <c r="G538" t="inlineStr"/>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
@@ -11219,6 +11761,7 @@
         <v>50</v>
       </c>
       <c r="F539" t="inlineStr"/>
+      <c r="G539" t="inlineStr"/>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
@@ -11239,6 +11782,7 @@
         <v>50</v>
       </c>
       <c r="F540" t="inlineStr"/>
+      <c r="G540" t="inlineStr"/>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
@@ -11259,6 +11803,7 @@
         <v>50</v>
       </c>
       <c r="F541" t="inlineStr"/>
+      <c r="G541" t="inlineStr"/>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
@@ -11279,6 +11824,7 @@
         <v>50</v>
       </c>
       <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr"/>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
@@ -11299,6 +11845,7 @@
         <v>50</v>
       </c>
       <c r="F543" t="inlineStr"/>
+      <c r="G543" t="inlineStr"/>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
@@ -11319,6 +11866,7 @@
         <v>50</v>
       </c>
       <c r="F544" t="inlineStr"/>
+      <c r="G544" t="inlineStr"/>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
@@ -11339,6 +11887,7 @@
         <v>50</v>
       </c>
       <c r="F545" t="inlineStr"/>
+      <c r="G545" t="inlineStr"/>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
@@ -11359,6 +11908,7 @@
         <v>50</v>
       </c>
       <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr"/>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
@@ -11379,6 +11929,7 @@
         <v>50</v>
       </c>
       <c r="F547" t="inlineStr"/>
+      <c r="G547" t="inlineStr"/>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
@@ -11399,6 +11950,7 @@
         <v>50</v>
       </c>
       <c r="F548" t="inlineStr"/>
+      <c r="G548" t="inlineStr"/>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
@@ -11419,6 +11971,7 @@
         <v>50</v>
       </c>
       <c r="F549" t="inlineStr"/>
+      <c r="G549" t="inlineStr"/>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
@@ -11439,6 +11992,7 @@
         <v>50</v>
       </c>
       <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr"/>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
@@ -11459,6 +12013,7 @@
         <v>50</v>
       </c>
       <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr"/>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
@@ -11479,6 +12034,7 @@
         <v>50</v>
       </c>
       <c r="F552" t="inlineStr"/>
+      <c r="G552" t="inlineStr"/>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
@@ -11499,6 +12055,7 @@
         <v>50</v>
       </c>
       <c r="F553" t="inlineStr"/>
+      <c r="G553" t="inlineStr"/>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
@@ -11519,6 +12076,7 @@
         <v>50</v>
       </c>
       <c r="F554" t="inlineStr"/>
+      <c r="G554" t="inlineStr"/>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
@@ -11539,6 +12097,7 @@
         <v>50</v>
       </c>
       <c r="F555" t="inlineStr"/>
+      <c r="G555" t="inlineStr"/>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
@@ -11559,6 +12118,7 @@
         <v>50</v>
       </c>
       <c r="F556" t="inlineStr"/>
+      <c r="G556" t="inlineStr"/>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
@@ -11579,6 +12139,7 @@
         <v>50</v>
       </c>
       <c r="F557" t="inlineStr"/>
+      <c r="G557" t="inlineStr"/>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
@@ -11599,6 +12160,7 @@
         <v>50</v>
       </c>
       <c r="F558" t="inlineStr"/>
+      <c r="G558" t="inlineStr"/>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
@@ -11619,6 +12181,7 @@
         <v>50</v>
       </c>
       <c r="F559" t="inlineStr"/>
+      <c r="G559" t="inlineStr"/>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
@@ -11639,6 +12202,7 @@
         <v>50</v>
       </c>
       <c r="F560" t="inlineStr"/>
+      <c r="G560" t="inlineStr"/>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
@@ -11659,6 +12223,7 @@
         <v>50</v>
       </c>
       <c r="F561" t="inlineStr"/>
+      <c r="G561" t="inlineStr"/>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
@@ -11679,6 +12244,7 @@
         <v>50</v>
       </c>
       <c r="F562" t="inlineStr"/>
+      <c r="G562" t="inlineStr"/>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
@@ -11699,6 +12265,7 @@
         <v>50</v>
       </c>
       <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr"/>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
@@ -11719,6 +12286,7 @@
         <v>50</v>
       </c>
       <c r="F564" t="inlineStr"/>
+      <c r="G564" t="inlineStr"/>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
@@ -11739,6 +12307,7 @@
         <v>50</v>
       </c>
       <c r="F565" t="inlineStr"/>
+      <c r="G565" t="inlineStr"/>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
@@ -11759,6 +12328,7 @@
         <v>50</v>
       </c>
       <c r="F566" t="inlineStr"/>
+      <c r="G566" t="inlineStr"/>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
@@ -11779,6 +12349,7 @@
         <v>50</v>
       </c>
       <c r="F567" t="inlineStr"/>
+      <c r="G567" t="inlineStr"/>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
@@ -11799,6 +12370,7 @@
         <v>50</v>
       </c>
       <c r="F568" t="inlineStr"/>
+      <c r="G568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -11819,6 +12391,7 @@
         <v>50</v>
       </c>
       <c r="F569" t="inlineStr"/>
+      <c r="G569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -11839,6 +12412,7 @@
         <v>50</v>
       </c>
       <c r="F570" t="inlineStr"/>
+      <c r="G570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -11859,6 +12433,7 @@
         <v>50</v>
       </c>
       <c r="F571" t="inlineStr"/>
+      <c r="G571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -11879,6 +12454,7 @@
         <v>50</v>
       </c>
       <c r="F572" t="inlineStr"/>
+      <c r="G572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -11899,6 +12475,7 @@
         <v>50</v>
       </c>
       <c r="F573" t="inlineStr"/>
+      <c r="G573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -11919,6 +12496,7 @@
         <v>50</v>
       </c>
       <c r="F574" t="inlineStr"/>
+      <c r="G574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
@@ -11939,6 +12517,7 @@
         <v>50</v>
       </c>
       <c r="F575" t="inlineStr"/>
+      <c r="G575" t="inlineStr"/>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
@@ -11959,6 +12538,7 @@
         <v>50</v>
       </c>
       <c r="F576" t="inlineStr"/>
+      <c r="G576" t="inlineStr"/>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
@@ -11979,6 +12559,7 @@
         <v>50</v>
       </c>
       <c r="F577" t="inlineStr"/>
+      <c r="G577" t="inlineStr"/>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
@@ -11999,6 +12580,7 @@
         <v>50</v>
       </c>
       <c r="F578" t="inlineStr"/>
+      <c r="G578" t="inlineStr"/>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
@@ -12019,6 +12601,7 @@
         <v>50</v>
       </c>
       <c r="F579" t="inlineStr"/>
+      <c r="G579" t="inlineStr"/>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
@@ -12039,6 +12622,7 @@
         <v>50</v>
       </c>
       <c r="F580" t="inlineStr"/>
+      <c r="G580" t="inlineStr"/>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
@@ -12059,6 +12643,7 @@
         <v>50</v>
       </c>
       <c r="F581" t="inlineStr"/>
+      <c r="G581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -12079,6 +12664,7 @@
         <v>50</v>
       </c>
       <c r="F582" t="inlineStr"/>
+      <c r="G582" t="inlineStr"/>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
@@ -12099,6 +12685,7 @@
         <v>50</v>
       </c>
       <c r="F583" t="inlineStr"/>
+      <c r="G583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -12119,6 +12706,7 @@
         <v>50</v>
       </c>
       <c r="F584" t="inlineStr"/>
+      <c r="G584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -12139,6 +12727,7 @@
         <v>50</v>
       </c>
       <c r="F585" t="inlineStr"/>
+      <c r="G585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -12159,6 +12748,7 @@
         <v>50</v>
       </c>
       <c r="F586" t="inlineStr"/>
+      <c r="G586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -12179,6 +12769,7 @@
         <v>50</v>
       </c>
       <c r="F587" t="inlineStr"/>
+      <c r="G587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -12199,6 +12790,7 @@
         <v>50</v>
       </c>
       <c r="F588" t="inlineStr"/>
+      <c r="G588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -12219,6 +12811,7 @@
         <v>50</v>
       </c>
       <c r="F589" t="inlineStr"/>
+      <c r="G589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -12239,6 +12832,7 @@
         <v>50</v>
       </c>
       <c r="F590" t="inlineStr"/>
+      <c r="G590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -12259,6 +12853,7 @@
         <v>50</v>
       </c>
       <c r="F591" t="inlineStr"/>
+      <c r="G591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -12279,6 +12874,7 @@
         <v>50</v>
       </c>
       <c r="F592" t="inlineStr"/>
+      <c r="G592" t="inlineStr"/>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
@@ -12299,6 +12895,7 @@
         <v>50</v>
       </c>
       <c r="F593" t="inlineStr"/>
+      <c r="G593" t="inlineStr"/>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
@@ -12319,6 +12916,7 @@
         <v>50</v>
       </c>
       <c r="F594" t="inlineStr"/>
+      <c r="G594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
@@ -12339,6 +12937,7 @@
         <v>50</v>
       </c>
       <c r="F595" t="inlineStr"/>
+      <c r="G595" t="inlineStr"/>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
@@ -12359,6 +12958,7 @@
         <v>50</v>
       </c>
       <c r="F596" t="inlineStr"/>
+      <c r="G596" t="inlineStr"/>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
@@ -12379,6 +12979,7 @@
         <v>50</v>
       </c>
       <c r="F597" t="inlineStr"/>
+      <c r="G597" t="inlineStr"/>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
@@ -12399,6 +13000,7 @@
         <v>50</v>
       </c>
       <c r="F598" t="inlineStr"/>
+      <c r="G598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -12419,6 +13021,7 @@
         <v>50</v>
       </c>
       <c r="F599" t="inlineStr"/>
+      <c r="G599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -12439,6 +13042,7 @@
         <v>50</v>
       </c>
       <c r="F600" t="inlineStr"/>
+      <c r="G600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -12459,6 +13063,7 @@
         <v>50</v>
       </c>
       <c r="F601" t="inlineStr"/>
+      <c r="G601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -12479,6 +13084,7 @@
         <v>50</v>
       </c>
       <c r="F602" t="inlineStr"/>
+      <c r="G602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -12499,6 +13105,7 @@
         <v>50</v>
       </c>
       <c r="F603" t="inlineStr"/>
+      <c r="G603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -12519,6 +13126,7 @@
         <v>50</v>
       </c>
       <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr"/>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
@@ -12539,6 +13147,7 @@
         <v>50</v>
       </c>
       <c r="F605" t="inlineStr"/>
+      <c r="G605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
@@ -12559,6 +13168,7 @@
         <v>50</v>
       </c>
       <c r="F606" t="inlineStr"/>
+      <c r="G606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -12579,6 +13189,7 @@
         <v>50</v>
       </c>
       <c r="F607" t="inlineStr"/>
+      <c r="G607" t="inlineStr"/>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
@@ -12599,6 +13210,7 @@
         <v>50</v>
       </c>
       <c r="F608" t="inlineStr"/>
+      <c r="G608" t="inlineStr"/>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
@@ -12619,6 +13231,7 @@
         <v>50</v>
       </c>
       <c r="F609" t="inlineStr"/>
+      <c r="G609" t="inlineStr"/>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
@@ -12639,6 +13252,7 @@
         <v>50</v>
       </c>
       <c r="F610" t="inlineStr"/>
+      <c r="G610" t="inlineStr"/>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
@@ -12659,6 +13273,7 @@
         <v>50</v>
       </c>
       <c r="F611" t="inlineStr"/>
+      <c r="G611" t="inlineStr"/>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
@@ -12679,6 +13294,7 @@
         <v>50</v>
       </c>
       <c r="F612" t="inlineStr"/>
+      <c r="G612" t="inlineStr"/>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
@@ -12699,6 +13315,7 @@
         <v>50</v>
       </c>
       <c r="F613" t="inlineStr"/>
+      <c r="G613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -12719,6 +13336,7 @@
         <v>50</v>
       </c>
       <c r="F614" t="inlineStr"/>
+      <c r="G614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -12739,6 +13357,7 @@
         <v>50</v>
       </c>
       <c r="F615" t="inlineStr"/>
+      <c r="G615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -12759,6 +13378,7 @@
         <v>50</v>
       </c>
       <c r="F616" t="inlineStr"/>
+      <c r="G616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -12779,6 +13399,7 @@
         <v>50</v>
       </c>
       <c r="F617" t="inlineStr"/>
+      <c r="G617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -12799,6 +13420,7 @@
         <v>50</v>
       </c>
       <c r="F618" t="inlineStr"/>
+      <c r="G618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -12819,6 +13441,7 @@
         <v>50</v>
       </c>
       <c r="F619" t="inlineStr"/>
+      <c r="G619" t="inlineStr"/>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
@@ -12839,6 +13462,7 @@
         <v>50</v>
       </c>
       <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr"/>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
@@ -12859,6 +13483,7 @@
         <v>50</v>
       </c>
       <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -12879,6 +13504,7 @@
         <v>50</v>
       </c>
       <c r="F622" t="inlineStr"/>
+      <c r="G622" t="inlineStr"/>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
@@ -12899,6 +13525,7 @@
         <v>50</v>
       </c>
       <c r="F623" t="inlineStr"/>
+      <c r="G623" t="inlineStr"/>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
@@ -12919,6 +13546,7 @@
         <v>50</v>
       </c>
       <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr"/>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
@@ -12939,6 +13567,7 @@
         <v>50</v>
       </c>
       <c r="F625" t="inlineStr"/>
+      <c r="G625" t="inlineStr"/>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
@@ -12959,6 +13588,7 @@
         <v>50</v>
       </c>
       <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr"/>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
@@ -12979,6 +13609,7 @@
         <v>50</v>
       </c>
       <c r="F627" t="inlineStr"/>
+      <c r="G627" t="inlineStr"/>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
@@ -12999,6 +13630,7 @@
         <v>50</v>
       </c>
       <c r="F628" t="inlineStr"/>
+      <c r="G628" t="inlineStr"/>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
@@ -13019,6 +13651,7 @@
         <v>50</v>
       </c>
       <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -13039,6 +13672,7 @@
         <v>50</v>
       </c>
       <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -13059,6 +13693,7 @@
         <v>50</v>
       </c>
       <c r="F631" t="inlineStr"/>
+      <c r="G631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -13079,6 +13714,7 @@
         <v>50</v>
       </c>
       <c r="F632" t="inlineStr"/>
+      <c r="G632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -13099,6 +13735,7 @@
         <v>50</v>
       </c>
       <c r="F633" t="inlineStr"/>
+      <c r="G633" t="inlineStr"/>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
@@ -13119,6 +13756,7 @@
         <v>50</v>
       </c>
       <c r="F634" t="inlineStr"/>
+      <c r="G634" t="inlineStr"/>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
@@ -13139,6 +13777,7 @@
         <v>50</v>
       </c>
       <c r="F635" t="inlineStr"/>
+      <c r="G635" t="inlineStr"/>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
@@ -13159,6 +13798,7 @@
         <v>50</v>
       </c>
       <c r="F636" t="inlineStr"/>
+      <c r="G636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -13179,6 +13819,7 @@
         <v>50</v>
       </c>
       <c r="F637" t="inlineStr"/>
+      <c r="G637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
@@ -13199,6 +13840,7 @@
         <v>50</v>
       </c>
       <c r="F638" t="inlineStr"/>
+      <c r="G638" t="inlineStr"/>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
@@ -13219,6 +13861,7 @@
         <v>50</v>
       </c>
       <c r="F639" t="inlineStr"/>
+      <c r="G639" t="inlineStr"/>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
@@ -13239,6 +13882,7 @@
         <v>50</v>
       </c>
       <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr"/>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
@@ -13259,6 +13903,7 @@
         <v>50</v>
       </c>
       <c r="F641" t="inlineStr"/>
+      <c r="G641" t="inlineStr"/>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
@@ -13279,6 +13924,7 @@
         <v>50</v>
       </c>
       <c r="F642" t="inlineStr"/>
+      <c r="G642" t="inlineStr"/>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
@@ -13299,6 +13945,7 @@
         <v>50</v>
       </c>
       <c r="F643" t="inlineStr"/>
+      <c r="G643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -13319,6 +13966,7 @@
         <v>50</v>
       </c>
       <c r="F644" t="inlineStr"/>
+      <c r="G644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -13339,6 +13987,7 @@
         <v>50</v>
       </c>
       <c r="F645" t="inlineStr"/>
+      <c r="G645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -13359,6 +14008,7 @@
         <v>50</v>
       </c>
       <c r="F646" t="inlineStr"/>
+      <c r="G646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -13379,6 +14029,7 @@
         <v>50</v>
       </c>
       <c r="F647" t="inlineStr"/>
+      <c r="G647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -13399,6 +14050,7 @@
         <v>50</v>
       </c>
       <c r="F648" t="inlineStr"/>
+      <c r="G648" t="inlineStr"/>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
@@ -13419,6 +14071,7 @@
         <v>50</v>
       </c>
       <c r="F649" t="inlineStr"/>
+      <c r="G649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
@@ -13439,6 +14092,7 @@
         <v>50</v>
       </c>
       <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr"/>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
@@ -13459,6 +14113,7 @@
         <v>50</v>
       </c>
       <c r="F651" t="inlineStr"/>
+      <c r="G651" t="inlineStr"/>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
@@ -13479,6 +14134,7 @@
         <v>50</v>
       </c>
       <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
@@ -13499,6 +14155,7 @@
         <v>50</v>
       </c>
       <c r="F653" t="inlineStr"/>
+      <c r="G653" t="inlineStr"/>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
@@ -13519,6 +14176,7 @@
         <v>50</v>
       </c>
       <c r="F654" t="inlineStr"/>
+      <c r="G654" t="inlineStr"/>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
@@ -13539,6 +14197,7 @@
         <v>50</v>
       </c>
       <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr"/>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
@@ -13559,6 +14218,7 @@
         <v>50</v>
       </c>
       <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
@@ -13579,6 +14239,7 @@
         <v>50</v>
       </c>
       <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr"/>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
@@ -13599,6 +14260,7 @@
         <v>50</v>
       </c>
       <c r="F658" t="inlineStr"/>
+      <c r="G658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
@@ -13619,6 +14281,7 @@
         <v>50</v>
       </c>
       <c r="F659" t="inlineStr"/>
+      <c r="G659" t="inlineStr"/>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
@@ -13639,6 +14302,7 @@
         <v>50</v>
       </c>
       <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr"/>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
@@ -13659,6 +14323,7 @@
         <v>50</v>
       </c>
       <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr"/>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
@@ -13679,6 +14344,7 @@
         <v>50</v>
       </c>
       <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr"/>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
@@ -13699,6 +14365,7 @@
         <v>50</v>
       </c>
       <c r="F663" t="inlineStr"/>
+      <c r="G663" t="inlineStr"/>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
@@ -13719,6 +14386,7 @@
         <v>50</v>
       </c>
       <c r="F664" t="inlineStr"/>
+      <c r="G664" t="inlineStr"/>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
@@ -13739,6 +14407,7 @@
         <v>50</v>
       </c>
       <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr"/>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
@@ -13759,6 +14428,7 @@
         <v>50</v>
       </c>
       <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr"/>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
@@ -13779,6 +14449,7 @@
         <v>50</v>
       </c>
       <c r="F667" t="inlineStr"/>
+      <c r="G667" t="inlineStr"/>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
@@ -13799,6 +14470,7 @@
         <v>50</v>
       </c>
       <c r="F668" t="inlineStr"/>
+      <c r="G668" t="inlineStr"/>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
@@ -13819,6 +14491,7 @@
         <v>50</v>
       </c>
       <c r="F669" t="inlineStr"/>
+      <c r="G669" t="inlineStr"/>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
@@ -13839,6 +14512,7 @@
         <v>50</v>
       </c>
       <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr"/>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
@@ -13859,6 +14533,7 @@
         <v>50</v>
       </c>
       <c r="F671" t="inlineStr"/>
+      <c r="G671" t="inlineStr"/>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
@@ -13879,6 +14554,7 @@
         <v>50</v>
       </c>
       <c r="F672" t="inlineStr"/>
+      <c r="G672" t="inlineStr"/>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
@@ -13899,6 +14575,7 @@
         <v>50</v>
       </c>
       <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr"/>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
@@ -13919,6 +14596,7 @@
         <v>50</v>
       </c>
       <c r="F674" t="inlineStr"/>
+      <c r="G674" t="inlineStr"/>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
@@ -13939,6 +14617,7 @@
         <v>50</v>
       </c>
       <c r="F675" t="inlineStr"/>
+      <c r="G675" t="inlineStr"/>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
@@ -13959,6 +14638,7 @@
         <v>50</v>
       </c>
       <c r="F676" t="inlineStr"/>
+      <c r="G676" t="inlineStr"/>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
@@ -13979,6 +14659,7 @@
         <v>50</v>
       </c>
       <c r="F677" t="inlineStr"/>
+      <c r="G677" t="inlineStr"/>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
@@ -13999,6 +14680,7 @@
         <v>50</v>
       </c>
       <c r="F678" t="inlineStr"/>
+      <c r="G678" t="inlineStr"/>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
@@ -14019,6 +14701,7 @@
         <v>50</v>
       </c>
       <c r="F679" t="inlineStr"/>
+      <c r="G679" t="inlineStr"/>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
@@ -14039,6 +14722,7 @@
         <v>50</v>
       </c>
       <c r="F680" t="inlineStr"/>
+      <c r="G680" t="inlineStr"/>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
@@ -14059,6 +14743,7 @@
         <v>50</v>
       </c>
       <c r="F681" t="inlineStr"/>
+      <c r="G681" t="inlineStr"/>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
@@ -14079,6 +14764,7 @@
         <v>50</v>
       </c>
       <c r="F682" t="inlineStr"/>
+      <c r="G682" t="inlineStr"/>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
@@ -14099,6 +14785,7 @@
         <v>50</v>
       </c>
       <c r="F683" t="inlineStr"/>
+      <c r="G683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
@@ -14119,6 +14806,7 @@
         <v>50</v>
       </c>
       <c r="F684" t="inlineStr"/>
+      <c r="G684" t="inlineStr"/>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
@@ -14139,6 +14827,7 @@
         <v>50</v>
       </c>
       <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr"/>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
@@ -14159,6 +14848,7 @@
         <v>50</v>
       </c>
       <c r="F686" t="inlineStr"/>
+      <c r="G686" t="inlineStr"/>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
@@ -14179,6 +14869,7 @@
         <v>50</v>
       </c>
       <c r="F687" t="inlineStr"/>
+      <c r="G687" t="inlineStr"/>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
@@ -14199,6 +14890,7 @@
         <v>50</v>
       </c>
       <c r="F688" t="inlineStr"/>
+      <c r="G688" t="inlineStr"/>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
@@ -14219,6 +14911,7 @@
         <v>50</v>
       </c>
       <c r="F689" t="inlineStr"/>
+      <c r="G689" t="inlineStr"/>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
@@ -14239,6 +14932,7 @@
         <v>50</v>
       </c>
       <c r="F690" t="inlineStr"/>
+      <c r="G690" t="inlineStr"/>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
@@ -14259,6 +14953,7 @@
         <v>50</v>
       </c>
       <c r="F691" t="inlineStr"/>
+      <c r="G691" t="inlineStr"/>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
@@ -14279,6 +14974,7 @@
         <v>50</v>
       </c>
       <c r="F692" t="inlineStr"/>
+      <c r="G692" t="inlineStr"/>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
@@ -14299,6 +14995,7 @@
         <v>50</v>
       </c>
       <c r="F693" t="inlineStr"/>
+      <c r="G693" t="inlineStr"/>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
@@ -14319,6 +15016,7 @@
         <v>50</v>
       </c>
       <c r="F694" t="inlineStr"/>
+      <c r="G694" t="inlineStr"/>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
@@ -14339,6 +15037,7 @@
         <v>50</v>
       </c>
       <c r="F695" t="inlineStr"/>
+      <c r="G695" t="inlineStr"/>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
@@ -14359,6 +15058,7 @@
         <v>50</v>
       </c>
       <c r="F696" t="inlineStr"/>
+      <c r="G696" t="inlineStr"/>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
@@ -14379,6 +15079,7 @@
         <v>50</v>
       </c>
       <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr"/>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
@@ -14399,6 +15100,7 @@
         <v>50</v>
       </c>
       <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr"/>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
@@ -14419,6 +15121,7 @@
         <v>50</v>
       </c>
       <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr"/>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
@@ -14439,6 +15142,7 @@
         <v>50</v>
       </c>
       <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr"/>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
@@ -14459,6 +15163,7 @@
         <v>50</v>
       </c>
       <c r="F701" t="inlineStr"/>
+      <c r="G701" t="inlineStr"/>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
@@ -14479,6 +15184,7 @@
         <v>50</v>
       </c>
       <c r="F702" t="inlineStr"/>
+      <c r="G702" t="inlineStr"/>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
@@ -14499,6 +15205,7 @@
         <v>50</v>
       </c>
       <c r="F703" t="inlineStr"/>
+      <c r="G703" t="inlineStr"/>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
@@ -14519,6 +15226,7 @@
         <v>50</v>
       </c>
       <c r="F704" t="inlineStr"/>
+      <c r="G704" t="inlineStr"/>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
@@ -14539,6 +15247,7 @@
         <v>50</v>
       </c>
       <c r="F705" t="inlineStr"/>
+      <c r="G705" t="inlineStr"/>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
@@ -14559,6 +15268,7 @@
         <v>50</v>
       </c>
       <c r="F706" t="inlineStr"/>
+      <c r="G706" t="inlineStr"/>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
@@ -14579,6 +15289,7 @@
         <v>50</v>
       </c>
       <c r="F707" t="inlineStr"/>
+      <c r="G707" t="inlineStr"/>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
@@ -14599,6 +15310,7 @@
         <v>50</v>
       </c>
       <c r="F708" t="inlineStr"/>
+      <c r="G708" t="inlineStr"/>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
@@ -14619,6 +15331,7 @@
         <v>50</v>
       </c>
       <c r="F709" t="inlineStr"/>
+      <c r="G709" t="inlineStr"/>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
@@ -14639,6 +15352,7 @@
         <v>50</v>
       </c>
       <c r="F710" t="inlineStr"/>
+      <c r="G710" t="inlineStr"/>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
@@ -14659,6 +15373,7 @@
         <v>50</v>
       </c>
       <c r="F711" t="inlineStr"/>
+      <c r="G711" t="inlineStr"/>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
@@ -14679,6 +15394,7 @@
         <v>50</v>
       </c>
       <c r="F712" t="inlineStr"/>
+      <c r="G712" t="inlineStr"/>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
@@ -14699,6 +15415,7 @@
         <v>50</v>
       </c>
       <c r="F713" t="inlineStr"/>
+      <c r="G713" t="inlineStr"/>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
@@ -14719,6 +15436,7 @@
         <v>50</v>
       </c>
       <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr"/>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
@@ -14739,6 +15457,7 @@
         <v>50</v>
       </c>
       <c r="F715" t="inlineStr"/>
+      <c r="G715" t="inlineStr"/>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
@@ -14759,6 +15478,7 @@
         <v>50</v>
       </c>
       <c r="F716" t="inlineStr"/>
+      <c r="G716" t="inlineStr"/>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
@@ -14779,6 +15499,7 @@
         <v>50</v>
       </c>
       <c r="F717" t="inlineStr"/>
+      <c r="G717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" s="1" t="n">
@@ -14799,6 +15520,7 @@
         <v>50</v>
       </c>
       <c r="F718" t="inlineStr"/>
+      <c r="G718" t="inlineStr"/>
     </row>
     <row r="719">
       <c r="A719" s="1" t="n">
@@ -14819,6 +15541,7 @@
         <v>50</v>
       </c>
       <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr"/>
     </row>
     <row r="720">
       <c r="A720" s="1" t="n">
@@ -14839,6 +15562,7 @@
         <v>50</v>
       </c>
       <c r="F720" t="inlineStr"/>
+      <c r="G720" t="inlineStr"/>
     </row>
     <row r="721">
       <c r="A721" s="1" t="n">
@@ -14859,6 +15583,7 @@
         <v>50</v>
       </c>
       <c r="F721" t="inlineStr"/>
+      <c r="G721" t="inlineStr"/>
     </row>
     <row r="722">
       <c r="A722" s="1" t="n">
@@ -14879,6 +15604,7 @@
         <v>50</v>
       </c>
       <c r="F722" t="inlineStr"/>
+      <c r="G722" t="inlineStr"/>
     </row>
     <row r="723">
       <c r="A723" s="1" t="n">
@@ -14899,6 +15625,7 @@
         <v>50</v>
       </c>
       <c r="F723" t="inlineStr"/>
+      <c r="G723" t="inlineStr"/>
     </row>
     <row r="724">
       <c r="A724" s="1" t="n">
@@ -14919,6 +15646,7 @@
         <v>50</v>
       </c>
       <c r="F724" t="inlineStr"/>
+      <c r="G724" t="inlineStr"/>
     </row>
     <row r="725">
       <c r="A725" s="1" t="n">
@@ -14939,6 +15667,7 @@
         <v>50</v>
       </c>
       <c r="F725" t="inlineStr"/>
+      <c r="G725" t="inlineStr"/>
     </row>
     <row r="726">
       <c r="A726" s="1" t="n">
@@ -14959,6 +15688,7 @@
         <v>50</v>
       </c>
       <c r="F726" t="inlineStr"/>
+      <c r="G726" t="inlineStr"/>
     </row>
     <row r="727">
       <c r="A727" s="1" t="n">
@@ -14979,6 +15709,7 @@
         <v>50</v>
       </c>
       <c r="F727" t="inlineStr"/>
+      <c r="G727" t="inlineStr"/>
     </row>
     <row r="728">
       <c r="A728" s="1" t="n">
@@ -14999,6 +15730,7 @@
         <v>50</v>
       </c>
       <c r="F728" t="inlineStr"/>
+      <c r="G728" t="inlineStr"/>
     </row>
     <row r="729">
       <c r="A729" s="1" t="n">
@@ -15019,6 +15751,7 @@
         <v>50</v>
       </c>
       <c r="F729" t="inlineStr"/>
+      <c r="G729" t="inlineStr"/>
     </row>
     <row r="730">
       <c r="A730" s="1" t="n">
@@ -15039,6 +15772,7 @@
         <v>50</v>
       </c>
       <c r="F730" t="inlineStr"/>
+      <c r="G730" t="inlineStr"/>
     </row>
     <row r="731">
       <c r="A731" s="1" t="n">
@@ -15059,6 +15793,7 @@
         <v>50</v>
       </c>
       <c r="F731" t="inlineStr"/>
+      <c r="G731" t="inlineStr"/>
     </row>
     <row r="732">
       <c r="A732" s="1" t="n">
@@ -15079,6 +15814,7 @@
         <v>50</v>
       </c>
       <c r="F732" t="inlineStr"/>
+      <c r="G732" t="inlineStr"/>
     </row>
     <row r="733">
       <c r="A733" s="1" t="n">
@@ -15099,6 +15835,7 @@
         <v>50</v>
       </c>
       <c r="F733" t="inlineStr"/>
+      <c r="G733" t="inlineStr"/>
     </row>
     <row r="734">
       <c r="A734" s="1" t="n">
@@ -15119,6 +15856,7 @@
         <v>50</v>
       </c>
       <c r="F734" t="inlineStr"/>
+      <c r="G734" t="inlineStr"/>
     </row>
     <row r="735">
       <c r="A735" s="1" t="n">
@@ -15139,6 +15877,7 @@
         <v>50</v>
       </c>
       <c r="F735" t="inlineStr"/>
+      <c r="G735" t="inlineStr"/>
     </row>
     <row r="736">
       <c r="A736" s="1" t="n">
@@ -15159,6 +15898,7 @@
         <v>50</v>
       </c>
       <c r="F736" t="inlineStr"/>
+      <c r="G736" t="inlineStr"/>
     </row>
     <row r="737">
       <c r="A737" s="1" t="n">
@@ -15179,6 +15919,7 @@
         <v>50</v>
       </c>
       <c r="F737" t="inlineStr"/>
+      <c r="G737" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/notebooks/id_players.xlsx
+++ b/notebooks/id_players.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G737"/>
+  <dimension ref="A1:G723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>149237</t>
+          <t>135687</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -492,7 +492,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>331937</t>
+          <t>380762</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -513,7 +513,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>176729</t>
+          <t>172028</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -534,7 +534,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>308980</t>
+          <t>439179</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -555,7 +555,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>171547</t>
+          <t>178827</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -576,7 +576,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>151005</t>
+          <t>413857</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -597,7 +597,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>152954</t>
+          <t>550753</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -618,7 +618,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>171936</t>
+          <t>432218</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -639,7 +639,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>172189</t>
+          <t>175390</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -660,7 +660,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>307772</t>
+          <t>292833</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -681,7 +681,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>156659</t>
+          <t>565547</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -702,7 +702,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>181281</t>
+          <t>306619</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -723,7 +723,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>141209</t>
+          <t>154179</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -744,7 +744,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>156034</t>
+          <t>398393</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -765,7 +765,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>166943</t>
+          <t>301089</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -786,7 +786,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>182609</t>
+          <t>293188</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -807,7 +807,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>335870</t>
+          <t>171788</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -828,7 +828,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>180546</t>
+          <t>401315</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>304832</t>
+          <t>184685</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>321561</t>
+          <t>383559</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -891,7 +891,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>159189</t>
+          <t>293384</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -912,7 +912,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>317006</t>
+          <t>440261</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -933,7 +933,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>170114</t>
+          <t>184524</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -954,7 +954,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>296748</t>
+          <t>378268</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>309431</t>
+          <t>370756</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>370013</t>
+          <t>161941</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>459687</t>
+          <t>302436</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>409773</t>
+          <t>389228</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>152788</t>
+          <t>180732</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>184364</t>
+          <t>348257</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>402984</t>
+          <t>364905</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>188990</t>
+          <t>309265</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>169529</t>
+          <t>318481</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>415367</t>
+          <t>175300</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1185,7 +1185,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>188494</t>
+          <t>383527</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>379731</t>
+          <t>500272</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>459666</t>
+          <t>410715</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>144603</t>
+          <t>384617</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>117336</t>
+          <t>387808</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>183381</t>
+          <t>554728</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>335379</t>
+          <t>145923</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>183189</t>
+          <t>300394</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>305735</t>
+          <t>307296</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>310242</t>
+          <t>174360</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>186413</t>
+          <t>171998</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>313755</t>
+          <t>337413</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>291708</t>
+          <t>176522</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>180213</t>
+          <t>318115</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>166276</t>
+          <t>157280</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -1500,7 +1500,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>165831</t>
+          <t>410091</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>187540</t>
+          <t>555122</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>157264</t>
+          <t>559270</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>183914</t>
+          <t>307406</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>145183</t>
+          <t>159371</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -1605,7 +1605,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>345720</t>
+          <t>154144</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>445541</t>
+          <t>509926</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -1647,7 +1647,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>178620</t>
+          <t>320263</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -1668,7 +1668,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>300744</t>
+          <t>152788</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>298642</t>
+          <t>302774</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -1710,7 +1710,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>459915</t>
+          <t>595193</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -1731,7 +1731,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>297441</t>
+          <t>310722</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>292175</t>
+          <t>379462</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>350039</t>
+          <t>183873</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>318254</t>
+          <t>316384</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -1815,7 +1815,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>303545</t>
+          <t>417467</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -1836,7 +1836,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>156184</t>
+          <t>536460</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>298595</t>
+          <t>304071</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>164801</t>
+          <t>384124</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>175323</t>
+          <t>177444</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>419387</t>
+          <t>328680</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>122714</t>
+          <t>318309</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>171975</t>
+          <t>132142</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -1983,7 +1983,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>180842</t>
+          <t>305917</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -2004,7 +2004,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>172933</t>
+          <t>165198</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>444943</t>
+          <t>502791</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>179229</t>
+          <t>185012</t>
         </is>
       </c>
       <c r="C77" t="n">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>394038</t>
+          <t>319512</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>293325</t>
+          <t>182631</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>165064</t>
+          <t>167958</t>
         </is>
       </c>
       <c r="C80" t="n">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>168008</t>
+          <t>140841</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>307753</t>
+          <t>166647</t>
         </is>
       </c>
       <c r="C82" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>178096</t>
+          <t>337172</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>138056</t>
+          <t>540186</t>
         </is>
       </c>
       <c r="C84" t="n">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>150305</t>
+          <t>149237</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>299481</t>
+          <t>383537</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>122995</t>
+          <t>154208</t>
         </is>
       </c>
       <c r="C87" t="n">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>169050</t>
+          <t>294598</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>137518</t>
+          <t>434301</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>316752</t>
+          <t>162466</t>
         </is>
       </c>
       <c r="C90" t="n">
@@ -2340,7 +2340,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>175445</t>
+          <t>154127</t>
         </is>
       </c>
       <c r="C91" t="n">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>159190</t>
+          <t>170540</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>459744</t>
+          <t>384823</t>
         </is>
       </c>
       <c r="C93" t="n">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>156325</t>
+          <t>291542</t>
         </is>
       </c>
       <c r="C94" t="n">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>445292</t>
+          <t>421675</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>315945</t>
+          <t>177152</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2466,7 +2466,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>161610</t>
+          <t>428672</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2487,7 +2487,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>185974</t>
+          <t>190286</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>162907</t>
+          <t>361134</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>178303</t>
+          <t>313426</t>
         </is>
       </c>
       <c r="C100" t="n">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>184801</t>
+          <t>150986</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -2571,7 +2571,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>170698</t>
+          <t>310596</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>186142</t>
+          <t>166603</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>174167</t>
+          <t>178373</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>184894</t>
+          <t>334490</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>161518</t>
+          <t>336832</t>
         </is>
       </c>
       <c r="C106" t="n">
@@ -2676,7 +2676,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>147224</t>
+          <t>337327</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -2697,7 +2697,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>179832</t>
+          <t>328835</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>144612</t>
+          <t>154497</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>187561</t>
+          <t>298361</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -2760,7 +2760,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>160650</t>
+          <t>323843</t>
         </is>
       </c>
       <c r="C111" t="n">
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>330386</t>
+          <t>153229</t>
         </is>
       </c>
       <c r="C112" t="n">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>130014</t>
+          <t>298485</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -2823,7 +2823,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>139391</t>
+          <t>188110</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>307976</t>
+          <t>166258</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>165925</t>
+          <t>315101</t>
         </is>
       </c>
       <c r="C116" t="n">
@@ -2886,7 +2886,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>298911</t>
+          <t>137377</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>160251</t>
+          <t>595801</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -2928,7 +2928,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>293695</t>
+          <t>320930</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>155855</t>
+          <t>343349</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -2970,7 +2970,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>316645</t>
+          <t>136752</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>176390</t>
+          <t>178891</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>155703</t>
+          <t>322642</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>159747</t>
+          <t>595881</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>151437</t>
+          <t>302795</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -3075,7 +3075,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>307134</t>
+          <t>566895</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>162467</t>
+          <t>291855</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>307295</t>
+          <t>184273</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>294785</t>
+          <t>392650</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3159,7 +3159,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>371689</t>
+          <t>376734</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3180,7 +3180,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>373438</t>
+          <t>182609</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>316470</t>
+          <t>313755</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>175557</t>
+          <t>170812</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>120815</t>
+          <t>441648</t>
         </is>
       </c>
       <c r="C134" t="n">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>163939</t>
+          <t>187597</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>180179</t>
+          <t>435371</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>153784</t>
+          <t>464503</t>
         </is>
       </c>
       <c r="C137" t="n">
@@ -3327,7 +3327,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>161745</t>
+          <t>189708</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -3348,7 +3348,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>187597</t>
+          <t>184833</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>177588</t>
+          <t>381926</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -3390,7 +3390,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>165836</t>
+          <t>421523</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>175130</t>
+          <t>137705</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>327121</t>
+          <t>169888</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>130166</t>
+          <t>316748</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>339275</t>
+          <t>507380</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -3495,7 +3495,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>178231</t>
+          <t>143977</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3516,7 +3516,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>295418</t>
+          <t>329055</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>159521</t>
+          <t>172279</t>
         </is>
       </c>
       <c r="C148" t="n">
@@ -3558,7 +3558,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>320984</t>
+          <t>459915</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -3579,7 +3579,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>292592</t>
+          <t>313474</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -3600,7 +3600,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>293092</t>
+          <t>304434</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>164019</t>
+          <t>314059</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -3642,7 +3642,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>172408</t>
+          <t>313131</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>160610</t>
+          <t>395014</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -3684,7 +3684,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>145923</t>
+          <t>163429</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>190417</t>
+          <t>419436</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>322398</t>
+          <t>319832</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -3747,7 +3747,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>186870</t>
+          <t>346046</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>293529</t>
+          <t>291540</t>
         </is>
       </c>
       <c r="C159" t="n">
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>371631</t>
+          <t>156351</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>139091</t>
+          <t>176375</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -3831,7 +3831,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>316481</t>
+          <t>352481</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>466923</t>
+          <t>364054</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>460476</t>
+          <t>309584</t>
         </is>
       </c>
       <c r="C164" t="n">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>154766</t>
+          <t>598963</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -3915,7 +3915,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>138932</t>
+          <t>333975</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>137377</t>
+          <t>155840</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -3957,7 +3957,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>183977</t>
+          <t>294382</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>387195</t>
+          <t>337508</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -3999,7 +3999,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>175411</t>
+          <t>323637</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>339155</t>
+          <t>367372</t>
         </is>
       </c>
       <c r="C171" t="n">
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>295587</t>
+          <t>315585</t>
         </is>
       </c>
       <c r="C172" t="n">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>161940</t>
+          <t>350453</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>292966</t>
+          <t>143465</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -4104,7 +4104,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>311027</t>
+          <t>291866</t>
         </is>
       </c>
       <c r="C175" t="n">
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>326613</t>
+          <t>507462</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>299161</t>
+          <t>159607</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>140053</t>
+          <t>362877</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>169938</t>
+          <t>150151</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>131482</t>
+          <t>367123</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>184833</t>
+          <t>178723</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -4251,7 +4251,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>320592</t>
+          <t>311313</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>316737</t>
+          <t>172123</t>
         </is>
       </c>
       <c r="C183" t="n">
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>150591</t>
+          <t>419498</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -4314,7 +4314,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>171998</t>
+          <t>150943</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>174194</t>
+          <t>445840</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>167723</t>
+          <t>565482</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>393549</t>
+          <t>172685</t>
         </is>
       </c>
       <c r="C188" t="n">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>155330</t>
+          <t>340169</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -4419,7 +4419,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>305419</t>
+          <t>420409</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>303187</t>
+          <t>168441</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>160379</t>
+          <t>174941</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>291534</t>
+          <t>165322</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>180083</t>
+          <t>183853</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>292179</t>
+          <t>150549</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>175422</t>
+          <t>174223</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>346745</t>
+          <t>163814</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -4587,7 +4587,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>295792</t>
+          <t>331869</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>303981</t>
+          <t>140053</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>155840</t>
+          <t>305723</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -4650,7 +4650,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>302196</t>
+          <t>355513</t>
         </is>
       </c>
       <c r="C201" t="n">
@@ -4671,7 +4671,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>186547</t>
+          <t>188260</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -4692,7 +4692,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>181106</t>
+          <t>355781</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>307317</t>
+          <t>401167</t>
         </is>
       </c>
       <c r="C204" t="n">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>172996</t>
+          <t>387255</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -4755,7 +4755,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>166061</t>
+          <t>351849</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>135288</t>
+          <t>295548</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>169876</t>
+          <t>410547</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -4818,7 +4818,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>352645</t>
+          <t>430588</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>338625</t>
+          <t>298793</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -4860,7 +4860,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>184216</t>
+          <t>377476</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>317763</t>
+          <t>328812</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>337172</t>
+          <t>354104</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>170272</t>
+          <t>177411</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -4944,7 +4944,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>155605</t>
+          <t>291843</t>
         </is>
       </c>
       <c r="C215" t="n">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>293428</t>
+          <t>167600</t>
         </is>
       </c>
       <c r="C216" t="n">
@@ -4986,7 +4986,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>146475</t>
+          <t>180789</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -5007,7 +5007,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>372444</t>
+          <t>172189</t>
         </is>
       </c>
       <c r="C218" t="n">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>316754</t>
+          <t>182423</t>
         </is>
       </c>
       <c r="C219" t="n">
@@ -5049,7 +5049,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>179697</t>
+          <t>565572</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -5070,7 +5070,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>183874</t>
+          <t>168982</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -5091,7 +5091,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>344838</t>
+          <t>455446</t>
         </is>
       </c>
       <c r="C222" t="n">
@@ -5112,7 +5112,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>341959</t>
+          <t>158893</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>158711</t>
+          <t>507566</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>303256</t>
+          <t>298402</t>
         </is>
       </c>
       <c r="C225" t="n">
@@ -5175,7 +5175,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>162945</t>
+          <t>385658</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>307296</t>
+          <t>374303</t>
         </is>
       </c>
       <c r="C227" t="n">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>364246</t>
+          <t>415367</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>320930</t>
+          <t>565701</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -5259,7 +5259,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>145244</t>
+          <t>304239</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -5280,7 +5280,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>326727</t>
+          <t>307735</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>507462</t>
+          <t>156659</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>177770</t>
+          <t>303922</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>370866</t>
+          <t>595891</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>303718</t>
+          <t>292592</t>
         </is>
       </c>
       <c r="C235" t="n">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>175513</t>
+          <t>291732</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>310373</t>
+          <t>521990</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -5427,7 +5427,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>460005</t>
+          <t>565329</t>
         </is>
       </c>
       <c r="C238" t="n">
@@ -5448,7 +5448,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>332318</t>
+          <t>384984</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>330336</t>
+          <t>298642</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -5490,7 +5490,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>347608</t>
+          <t>185339</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>171973</t>
+          <t>308405</t>
         </is>
       </c>
       <c r="C242" t="n">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>459846</t>
+          <t>565315</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>420299</t>
+          <t>292205</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>346588</t>
+          <t>173180</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -5595,7 +5595,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>292942</t>
+          <t>424455</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -5616,7 +5616,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>166649</t>
+          <t>156079</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>405061</t>
+          <t>565380</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>310101</t>
+          <t>169286</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -5679,7 +5679,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>295087</t>
+          <t>175411</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>350365</t>
+          <t>172404</t>
         </is>
       </c>
       <c r="C251" t="n">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>295789</t>
+          <t>159684</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>305721</t>
+          <t>308965</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>180790</t>
+          <t>339242</t>
         </is>
       </c>
       <c r="C254" t="n">
@@ -5784,7 +5784,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>173602</t>
+          <t>320839</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>328835</t>
+          <t>303436</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>177411</t>
+          <t>342628</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -5847,7 +5847,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>353262</t>
+          <t>186413</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>445012</t>
+          <t>521936</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>310312</t>
+          <t>425933</t>
         </is>
       </c>
       <c r="C260" t="n">
@@ -5910,7 +5910,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>165065</t>
+          <t>541170</t>
         </is>
       </c>
       <c r="C261" t="n">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>299878</t>
+          <t>130014</t>
         </is>
       </c>
       <c r="C262" t="n">
@@ -5952,7 +5952,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>507398</t>
+          <t>419230</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>317706</t>
+          <t>154989</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>420161</t>
+          <t>148994</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -6015,7 +6015,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>171788</t>
+          <t>295791</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -6036,7 +6036,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>311122</t>
+          <t>176196</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>170061</t>
+          <t>306852</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -6078,7 +6078,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>305534</t>
+          <t>316765</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -6099,7 +6099,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>141341</t>
+          <t>312015</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>176908</t>
+          <t>186467</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -6141,7 +6141,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>317697</t>
+          <t>306019</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -6162,7 +6162,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>292833</t>
+          <t>375634</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>506123</t>
+          <t>555278</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>387400</t>
+          <t>177010</t>
         </is>
       </c>
       <c r="C275" t="n">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>338491</t>
+          <t>337245</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>304816</t>
+          <t>123816</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -6267,7 +6267,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>189538</t>
+          <t>541169</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -6288,7 +6288,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>309265</t>
+          <t>184600</t>
         </is>
       </c>
       <c r="C279" t="n">
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>166603</t>
+          <t>161269</t>
         </is>
       </c>
       <c r="C280" t="n">
@@ -6330,7 +6330,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>157280</t>
+          <t>297781</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>177354</t>
+          <t>308418</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -6372,7 +6372,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>191433</t>
+          <t>179832</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>183876</t>
+          <t>295957</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>445840</t>
+          <t>171406</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -6435,7 +6435,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>185839</t>
+          <t>553997</t>
         </is>
       </c>
       <c r="C286" t="n">
@@ -6456,7 +6456,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>169890</t>
+          <t>321829</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>161625</t>
+          <t>439461</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -6498,7 +6498,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>306852</t>
+          <t>353511</t>
         </is>
       </c>
       <c r="C289" t="n">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>305876</t>
+          <t>306146</t>
         </is>
       </c>
       <c r="C290" t="n">
@@ -6540,7 +6540,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>173180</t>
+          <t>510014</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>507274</t>
+          <t>184174</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>172028</t>
+          <t>408877</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -6603,7 +6603,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>313474</t>
+          <t>170272</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -6624,7 +6624,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>345933</t>
+          <t>173742</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>507272</t>
+          <t>402681</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>447207</t>
+          <t>371689</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -6687,7 +6687,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>165322</t>
+          <t>380745</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -6708,7 +6708,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>348196</t>
+          <t>295821</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>291584</t>
+          <t>180546</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -6750,7 +6750,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>303388</t>
+          <t>337178</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -6771,7 +6771,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>291468</t>
+          <t>152954</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -6792,7 +6792,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>315101</t>
+          <t>166649</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>303922</t>
+          <t>451607</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -6834,7 +6834,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>459532</t>
+          <t>174755</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -6855,7 +6855,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>178361</t>
+          <t>144360</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -6876,7 +6876,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>307680</t>
+          <t>459496</t>
         </is>
       </c>
       <c r="C307" t="n">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>291738</t>
+          <t>401839</t>
         </is>
       </c>
       <c r="C308" t="n">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>178962</t>
+          <t>308527</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -6939,7 +6939,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>295548</t>
+          <t>307774</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -6960,7 +6960,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>344314</t>
+          <t>420184</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>305723</t>
+          <t>359696</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -7002,7 +7002,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>107639</t>
+          <t>319850</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -7023,7 +7023,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>171339</t>
+          <t>181803</t>
         </is>
       </c>
       <c r="C314" t="n">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>321820</t>
+          <t>346294</t>
         </is>
       </c>
       <c r="C315" t="n">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>138908</t>
+          <t>165439</t>
         </is>
       </c>
       <c r="C316" t="n">
@@ -7086,7 +7086,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>343235</t>
+          <t>367216</t>
         </is>
       </c>
       <c r="C317" t="n">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>371257</t>
+          <t>451459</t>
         </is>
       </c>
       <c r="C318" t="n">
@@ -7128,7 +7128,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>320839</t>
+          <t>186870</t>
         </is>
       </c>
       <c r="C319" t="n">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>324030</t>
+          <t>167201</t>
         </is>
       </c>
       <c r="C320" t="n">
@@ -7170,7 +7170,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>122631</t>
+          <t>176738</t>
         </is>
       </c>
       <c r="C321" t="n">
@@ -7191,7 +7191,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>507380</t>
+          <t>374749</t>
         </is>
       </c>
       <c r="C322" t="n">
@@ -7212,7 +7212,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>293393</t>
+          <t>421719</t>
         </is>
       </c>
       <c r="C323" t="n">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>178854</t>
+          <t>320111</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -7254,7 +7254,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>346636</t>
+          <t>541197</t>
         </is>
       </c>
       <c r="C325" t="n">
@@ -7275,7 +7275,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>166725</t>
+          <t>294769</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -7296,7 +7296,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>188511</t>
+          <t>402095</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>161437</t>
+          <t>299840</t>
         </is>
       </c>
       <c r="C328" t="n">
@@ -7338,7 +7338,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>169286</t>
+          <t>305764</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -7359,7 +7359,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>177749</t>
+          <t>296645</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -7380,7 +7380,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>353824</t>
+          <t>345210</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>308149</t>
+          <t>178005</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -7422,7 +7422,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>150201</t>
+          <t>554626</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>311439</t>
+          <t>405713</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -7464,7 +7464,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>302774</t>
+          <t>166276</t>
         </is>
       </c>
       <c r="C335" t="n">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>327755</t>
+          <t>317780</t>
         </is>
       </c>
       <c r="C336" t="n">
@@ -7506,7 +7506,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>335342</t>
+          <t>567614</t>
         </is>
       </c>
       <c r="C337" t="n">
@@ -7527,7 +7527,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>176714</t>
+          <t>406246</t>
         </is>
       </c>
       <c r="C338" t="n">
@@ -7548,7 +7548,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>360443</t>
+          <t>432666</t>
         </is>
       </c>
       <c r="C339" t="n">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>305977</t>
+          <t>292942</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -7590,7 +7590,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>366885</t>
+          <t>350018</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -7611,7 +7611,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>159341</t>
+          <t>297414</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -7632,7 +7632,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>334195</t>
+          <t>402984</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>175242</t>
+          <t>462332</t>
         </is>
       </c>
       <c r="C344" t="n">
@@ -7674,7 +7674,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>186140</t>
+          <t>306616</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -7695,7 +7695,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>316364</t>
+          <t>340736</t>
         </is>
       </c>
       <c r="C346" t="n">
@@ -7716,7 +7716,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>176368</t>
+          <t>178222</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>330720</t>
+          <t>181262</t>
         </is>
       </c>
       <c r="C348" t="n">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>369136</t>
+          <t>310950</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -7779,7 +7779,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>294382</t>
+          <t>172342</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>185680</t>
+          <t>168008</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>298420</t>
+          <t>318095</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -7842,7 +7842,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>303546</t>
+          <t>553524</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -7863,7 +7863,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>175729</t>
+          <t>179395</t>
         </is>
       </c>
       <c r="C354" t="n">
@@ -7884,7 +7884,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>168387</t>
+          <t>184455</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>178402</t>
+          <t>172996</t>
         </is>
       </c>
       <c r="C356" t="n">
@@ -7926,7 +7926,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>137073</t>
+          <t>447783</t>
         </is>
       </c>
       <c r="C357" t="n">
@@ -7947,7 +7947,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>324491</t>
+          <t>177770</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -7968,7 +7968,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>294712</t>
+          <t>139094</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -7989,7 +7989,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>511616</t>
+          <t>377697</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -8010,7 +8010,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>182246</t>
+          <t>291780</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -8031,7 +8031,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>173760</t>
+          <t>355990</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>318673</t>
+          <t>360465</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -8073,7 +8073,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>325678</t>
+          <t>182717</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -8094,7 +8094,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>305718</t>
+          <t>309332</t>
         </is>
       </c>
       <c r="C365" t="n">
@@ -8115,7 +8115,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>321841</t>
+          <t>307134</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -8136,7 +8136,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>308883</t>
+          <t>540157</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>291274</t>
+          <t>293087</t>
         </is>
       </c>
       <c r="C368" t="n">
@@ -8178,7 +8178,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>291866</t>
+          <t>307317</t>
         </is>
       </c>
       <c r="C369" t="n">
@@ -8199,7 +8199,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>369608</t>
+          <t>335012</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -8220,7 +8220,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>168939</t>
+          <t>298595</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>402375</t>
+          <t>295418</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -8262,7 +8262,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>312847</t>
+          <t>173277</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -8283,7 +8283,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>189708</t>
+          <t>176729</t>
         </is>
       </c>
       <c r="C374" t="n">
@@ -8304,7 +8304,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>395471</t>
+          <t>308348</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>338777</t>
+          <t>155508</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>315875</t>
+          <t>328974</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -8367,7 +8367,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>316480</t>
+          <t>157270</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -8388,7 +8388,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>321012</t>
+          <t>161437</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>184395</t>
+          <t>376586</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -8430,7 +8430,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>147062</t>
+          <t>410510</t>
         </is>
       </c>
       <c r="C381" t="n">
@@ -8451,7 +8451,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>172714</t>
+          <t>178361</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -8472,7 +8472,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>178044</t>
+          <t>151437</t>
         </is>
       </c>
       <c r="C383" t="n">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>293440</t>
+          <t>303237</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -8514,7 +8514,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>315043</t>
+          <t>413816</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -8535,7 +8535,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>160606</t>
+          <t>526236</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -8556,7 +8556,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>507566</t>
+          <t>303716</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>318658</t>
+          <t>173861</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>177362</t>
+          <t>178750</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -8619,7 +8619,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>321011</t>
+          <t>457985</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -8640,7 +8640,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>354104</t>
+          <t>178178</t>
         </is>
       </c>
       <c r="C391" t="n">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>178723</t>
+          <t>333318</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>327945</t>
+          <t>433313</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -8703,7 +8703,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>138321</t>
+          <t>145815</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -8724,7 +8724,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>185126</t>
+          <t>335611</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>409960</t>
+          <t>429638</t>
         </is>
       </c>
       <c r="C396" t="n">
@@ -8766,7 +8766,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>177444</t>
+          <t>404815</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -8787,7 +8787,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>353336</t>
+          <t>177853</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -8808,7 +8808,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>173277</t>
+          <t>357424</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -8829,7 +8829,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>166258</t>
+          <t>165775</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -8850,7 +8850,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>177050</t>
+          <t>403320</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -8871,7 +8871,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>186564</t>
+          <t>353826</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>146526</t>
+          <t>172411</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>344841</t>
+          <t>188941</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -8934,7 +8934,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>389307</t>
+          <t>353568</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -8955,7 +8955,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>304239</t>
+          <t>457323</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -8976,7 +8976,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>180838</t>
+          <t>522615</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>337830</t>
+          <t>452314</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -9018,7 +9018,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>137982</t>
+          <t>322785</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -9039,7 +9039,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>178684</t>
+          <t>504064</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -9060,7 +9060,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>155426</t>
+          <t>184845</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>384124</t>
+          <t>409960</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -9102,7 +9102,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>383527</t>
+          <t>407776</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -9123,7 +9123,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>307037</t>
+          <t>184597</t>
         </is>
       </c>
       <c r="C414" t="n">
@@ -9144,7 +9144,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>307277</t>
+          <t>345333</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>329591</t>
+          <t>511591</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -9186,7 +9186,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>184600</t>
+          <t>387972</t>
         </is>
       </c>
       <c r="C417" t="n">
@@ -9207,7 +9207,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>169990</t>
+          <t>303542</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>190389</t>
+          <t>540839</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -9249,7 +9249,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>459473</t>
+          <t>346890</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -9270,7 +9270,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>159209</t>
+          <t>299026</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -9291,7 +9291,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>358318</t>
+          <t>328820</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -9312,7 +9312,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>297414</t>
+          <t>150176</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>380325</t>
+          <t>376786</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -9354,7 +9354,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>128373</t>
+          <t>593809</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>167600</t>
+          <t>407095</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>170540</t>
+          <t>308980</t>
         </is>
       </c>
       <c r="C427" t="n">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>295821</t>
+          <t>421665</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -9438,7 +9438,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>171815</t>
+          <t>293393</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -9459,7 +9459,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>176854</t>
+          <t>443517</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -9480,7 +9480,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>355752</t>
+          <t>296349</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>177885</t>
+          <t>188990</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -9522,7 +9522,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>291626</t>
+          <t>293420</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -9543,7 +9543,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>329617</t>
+          <t>353262</t>
         </is>
       </c>
       <c r="C434" t="n">
@@ -9564,7 +9564,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>347193</t>
+          <t>541503</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>299676</t>
+          <t>292114</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -9606,7 +9606,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>308418</t>
+          <t>158615</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -9627,7 +9627,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>453172</t>
+          <t>346833</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -9648,7 +9648,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>296573</t>
+          <t>163254</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>178965</t>
+          <t>168351</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -9690,7 +9690,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>167509</t>
+          <t>163514</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -9711,7 +9711,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>352647</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>170077</t>
+          <t>387534</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>185301</t>
+          <t>331248</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -9774,7 +9774,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>152825</t>
+          <t>161745</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -9795,7 +9795,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>166370</t>
+          <t>172038</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -9816,7 +9816,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>137760</t>
+          <t>299686</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>311336</t>
+          <t>169939</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -9858,7 +9858,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>302436</t>
+          <t>340240</t>
         </is>
       </c>
       <c r="C449" t="n">
@@ -9879,7 +9879,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>178095</t>
+          <t>392746</t>
         </is>
       </c>
       <c r="C450" t="n">
@@ -9900,7 +9900,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>318702</t>
+          <t>565356</t>
         </is>
       </c>
       <c r="C451" t="n">
@@ -9921,7 +9921,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>162278</t>
+          <t>565602</t>
         </is>
       </c>
       <c r="C452" t="n">
@@ -9942,7 +9942,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>371634</t>
+          <t>172576</t>
         </is>
       </c>
       <c r="C453" t="n">
@@ -9963,7 +9963,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>338751</t>
+          <t>302792</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -9984,7 +9984,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>459864</t>
+          <t>166061</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>132420</t>
+          <t>169374</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -10026,7 +10026,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>293010</t>
+          <t>172039</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -10047,7 +10047,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>188231</t>
+          <t>379565</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -10068,7 +10068,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>141698</t>
+          <t>515844</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>170812</t>
+          <t>305811</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -10110,7 +10110,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>173290</t>
+          <t>349177</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -10131,7 +10131,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>319430</t>
+          <t>331937</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -10152,7 +10152,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>335362</t>
+          <t>327667</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>152154</t>
+          <t>416803</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -10194,7 +10194,7 @@
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>347952</t>
+          <t>322748</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -10215,7 +10215,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>307797</t>
+          <t>165075</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -10236,7 +10236,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>172142</t>
+          <t>384126</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>312950</t>
+          <t>392224</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -10278,7 +10278,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>123816</t>
+          <t>317706</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -10299,7 +10299,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>299142</t>
+          <t>303545</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -10320,7 +10320,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>135687</t>
+          <t>463092</t>
         </is>
       </c>
       <c r="C471" t="n">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>301974</t>
+          <t>413841</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -10362,7 +10362,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>161269</t>
+          <t>186142</t>
         </is>
       </c>
       <c r="C473" t="n">
@@ -10383,7 +10383,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>140841</t>
+          <t>347222</t>
         </is>
       </c>
       <c r="C474" t="n">
@@ -10404,7 +10404,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>291855</t>
+          <t>374427</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>167958</t>
+          <t>296811</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -10446,7 +10446,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>310627</t>
+          <t>301156</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -10467,7 +10467,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>328813</t>
+          <t>377434</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>177094</t>
+          <t>178962</t>
         </is>
       </c>
       <c r="C479" t="n">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>178222</t>
+          <t>402719</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -10530,7 +10530,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>307085</t>
+          <t>424790</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>293420</t>
+          <t>319635</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -10572,7 +10572,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>150731</t>
+          <t>159716</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>509264</t>
+          <t>293506</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -10614,7 +10614,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>322380</t>
+          <t>372387</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -10635,7 +10635,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>308876</t>
+          <t>164974</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -10656,7 +10656,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>376586</t>
+          <t>308877</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>172292</t>
+          <t>595995</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -10698,7 +10698,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>337332</t>
+          <t>188660</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -10719,7 +10719,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>175878</t>
+          <t>338849</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>175747</t>
+          <t>399284</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>317384</t>
+          <t>409873</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -10782,7 +10782,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>175721</t>
+          <t>302192</t>
         </is>
       </c>
       <c r="C493" t="n">
@@ -10803,7 +10803,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>156140</t>
+          <t>330886</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -10824,7 +10824,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>137990</t>
+          <t>514810</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>328399</t>
+          <t>304285</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -10866,7 +10866,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>184174</t>
+          <t>422351</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -10887,7 +10887,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>162754</t>
+          <t>352037</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -10908,7 +10908,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>188643</t>
+          <t>339900</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>306149</t>
+          <t>553612</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -10950,7 +10950,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>296640</t>
+          <t>184395</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -10971,7 +10971,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>308887</t>
+          <t>361347</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>295119</t>
+          <t>599658</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>307076</t>
+          <t>295557</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -11034,7 +11034,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>176522</t>
+          <t>330966</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -11055,7 +11055,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>327667</t>
+          <t>457301</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -11076,7 +11076,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>354273</t>
+          <t>447682</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>178486</t>
+          <t>156034</t>
         </is>
       </c>
       <c r="C508" t="n">
@@ -11118,7 +11118,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>155508</t>
+          <t>180213</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -11139,7 +11139,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>184507</t>
+          <t>398368</t>
         </is>
       </c>
       <c r="C510" t="n">
@@ -11160,7 +11160,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>182684</t>
+          <t>320196</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>146284</t>
+          <t>404816</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -11202,7 +11202,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>179103</t>
+          <t>164621</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -11223,7 +11223,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>379396</t>
+          <t>365738</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -11244,7 +11244,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>137978</t>
+          <t>339209</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -11265,7 +11265,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>305976</t>
+          <t>541574</t>
         </is>
       </c>
       <c r="C516" t="n">
@@ -11286,7 +11286,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>160686</t>
+          <t>459582</t>
         </is>
       </c>
       <c r="C517" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>189046</t>
+          <t>541232</t>
         </is>
       </c>
       <c r="C518" t="n">
@@ -11328,7 +11328,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>292132</t>
+          <t>291786</t>
         </is>
       </c>
       <c r="C519" t="n">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>293033</t>
+          <t>172408</t>
         </is>
       </c>
       <c r="C520" t="n">
@@ -11370,7 +11370,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>326522</t>
+          <t>459474</t>
         </is>
       </c>
       <c r="C521" t="n">
@@ -11391,7 +11391,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>317913</t>
+          <t>353400</t>
         </is>
       </c>
       <c r="C522" t="n">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>179974</t>
+          <t>307979</t>
         </is>
       </c>
       <c r="C523" t="n">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>325020</t>
+          <t>303718</t>
         </is>
       </c>
       <c r="C524" t="n">
@@ -11454,7 +11454,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>170255</t>
+          <t>339594</t>
         </is>
       </c>
       <c r="C525" t="n">
@@ -11475,7 +11475,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>296566</t>
+          <t>141516</t>
         </is>
       </c>
       <c r="C526" t="n">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>306822</t>
+          <t>376566</t>
         </is>
       </c>
       <c r="C527" t="n">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>162897</t>
+          <t>312907</t>
         </is>
       </c>
       <c r="C528" t="n">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>373841</t>
+          <t>532800</t>
         </is>
       </c>
       <c r="C529" t="n">
@@ -11559,7 +11559,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>167214</t>
+          <t>307645</t>
         </is>
       </c>
       <c r="C530" t="n">
@@ -11580,7 +11580,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>154127</t>
+          <t>307277</t>
         </is>
       </c>
       <c r="C531" t="n">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>310950</t>
+          <t>355960</t>
         </is>
       </c>
       <c r="C532" t="n">
@@ -11622,7 +11622,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>165059</t>
+          <t>175445</t>
         </is>
       </c>
       <c r="C533" t="n">
@@ -11643,7 +11643,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>182944</t>
+          <t>354299</t>
         </is>
       </c>
       <c r="C534" t="n">
@@ -11664,7 +11664,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>420184</t>
+          <t>533963</t>
         </is>
       </c>
       <c r="C535" t="n">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>509926</t>
+          <t>321574</t>
         </is>
       </c>
       <c r="C536" t="n">
@@ -11706,7 +11706,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>357424</t>
+          <t>129292</t>
         </is>
       </c>
       <c r="C537" t="n">
@@ -11727,7 +11727,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>179098</t>
+          <t>307840</t>
         </is>
       </c>
       <c r="C538" t="n">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>298761</t>
+          <t>167509</t>
         </is>
       </c>
       <c r="C539" t="n">
@@ -11769,7 +11769,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>405390</t>
+          <t>346636</t>
         </is>
       </c>
       <c r="C540" t="n">
@@ -11790,7 +11790,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>307366</t>
+          <t>403112</t>
         </is>
       </c>
       <c r="C541" t="n">
@@ -11811,7 +11811,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>168351</t>
+          <t>308880</t>
         </is>
       </c>
       <c r="C542" t="n">
@@ -11832,7 +11832,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>303063</t>
+          <t>293172</t>
         </is>
       </c>
       <c r="C543" t="n">
@@ -11853,7 +11853,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>183902</t>
+          <t>291269</t>
         </is>
       </c>
       <c r="C544" t="n">
@@ -11874,7 +11874,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>293655</t>
+          <t>169978</t>
         </is>
       </c>
       <c r="C545" t="n">
@@ -11895,7 +11895,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>156045</t>
+          <t>315979</t>
         </is>
       </c>
       <c r="C546" t="n">
@@ -11916,7 +11916,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>166491</t>
+          <t>155330</t>
         </is>
       </c>
       <c r="C547" t="n">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>385424</t>
+          <t>316754</t>
         </is>
       </c>
       <c r="C548" t="n">
@@ -11958,7 +11958,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>155026</t>
+          <t>337826</t>
         </is>
       </c>
       <c r="C549" t="n">
@@ -11979,7 +11979,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>162905</t>
+          <t>147010</t>
         </is>
       </c>
       <c r="C550" t="n">
@@ -12000,7 +12000,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>312048</t>
+          <t>405246</t>
         </is>
       </c>
       <c r="C551" t="n">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>317780</t>
+          <t>466733</t>
         </is>
       </c>
       <c r="C552" t="n">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>176512</t>
+          <t>176390</t>
         </is>
       </c>
       <c r="C553" t="n">
@@ -12063,7 +12063,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>143977</t>
+          <t>307273</t>
         </is>
       </c>
       <c r="C554" t="n">
@@ -12084,7 +12084,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>174372</t>
+          <t>293428</t>
         </is>
       </c>
       <c r="C555" t="n">
@@ -12105,7 +12105,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>170563</t>
+          <t>335599</t>
         </is>
       </c>
       <c r="C556" t="n">
@@ -12126,7 +12126,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>335312</t>
+          <t>185126</t>
         </is>
       </c>
       <c r="C557" t="n">
@@ -12147,7 +12147,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>123208</t>
+          <t>305961</t>
         </is>
       </c>
       <c r="C558" t="n">
@@ -12168,7 +12168,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>175320</t>
+          <t>162393</t>
         </is>
       </c>
       <c r="C559" t="n">
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>329015</t>
+          <t>180838</t>
         </is>
       </c>
       <c r="C560" t="n">
@@ -12210,7 +12210,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>140653</t>
+          <t>322380</t>
         </is>
       </c>
       <c r="C561" t="n">
@@ -12231,7 +12231,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>340890</t>
+          <t>347998</t>
         </is>
       </c>
       <c r="C562" t="n">
@@ -12252,7 +12252,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>174941</t>
+          <t>565313</t>
         </is>
       </c>
       <c r="C563" t="n">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>155193</t>
+          <t>317022</t>
         </is>
       </c>
       <c r="C564" t="n">
@@ -12294,7 +12294,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>186958</t>
+          <t>339292</t>
         </is>
       </c>
       <c r="C565" t="n">
@@ -12315,7 +12315,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>394353</t>
+          <t>359493</t>
         </is>
       </c>
       <c r="C566" t="n">
@@ -12336,7 +12336,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>344221</t>
+          <t>339258</t>
         </is>
       </c>
       <c r="C567" t="n">
@@ -12357,7 +12357,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>150799</t>
+          <t>409409</t>
         </is>
       </c>
       <c r="C568" t="n">
@@ -12378,7 +12378,7 @@
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>304434</t>
+          <t>292132</t>
         </is>
       </c>
       <c r="C569" t="n">
@@ -12399,7 +12399,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>291540</t>
+          <t>293712</t>
         </is>
       </c>
       <c r="C570" t="n">
@@ -12420,7 +12420,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>166647</t>
+          <t>158204</t>
         </is>
       </c>
       <c r="C571" t="n">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>402208</t>
+          <t>339155</t>
         </is>
       </c>
       <c r="C572" t="n">
@@ -12462,7 +12462,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>379065</t>
+          <t>331842</t>
         </is>
       </c>
       <c r="C573" t="n">
@@ -12483,7 +12483,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>141158</t>
+          <t>159238</t>
         </is>
       </c>
       <c r="C574" t="n">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>179486</t>
+          <t>137340</t>
         </is>
       </c>
       <c r="C575" t="n">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>158204</t>
+          <t>172361</t>
         </is>
       </c>
       <c r="C576" t="n">
@@ -12546,7 +12546,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>298531</t>
+          <t>291317</t>
         </is>
       </c>
       <c r="C577" t="n">
@@ -12567,7 +12567,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>320111</t>
+          <t>508147</t>
         </is>
       </c>
       <c r="C578" t="n">
@@ -12588,7 +12588,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>164974</t>
+          <t>553190</t>
         </is>
       </c>
       <c r="C579" t="n">
@@ -12609,7 +12609,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>175560</t>
+          <t>155541</t>
         </is>
       </c>
       <c r="C580" t="n">
@@ -12630,7 +12630,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>507527</t>
+          <t>418697</t>
         </is>
       </c>
       <c r="C581" t="n">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>124316</t>
+          <t>149233</t>
         </is>
       </c>
       <c r="C582" t="n">
@@ -12672,7 +12672,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>341055</t>
+          <t>553597</t>
         </is>
       </c>
       <c r="C583" t="n">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>318069</t>
+          <t>181172</t>
         </is>
       </c>
       <c r="C584" t="n">
@@ -12714,7 +12714,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>150549</t>
+          <t>146284</t>
         </is>
       </c>
       <c r="C585" t="n">
@@ -12735,7 +12735,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>184931</t>
+          <t>170011</t>
         </is>
       </c>
       <c r="C586" t="n">
@@ -12756,7 +12756,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>305973</t>
+          <t>309431</t>
         </is>
       </c>
       <c r="C587" t="n">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>131212</t>
+          <t>364829</t>
         </is>
       </c>
       <c r="C588" t="n">
@@ -12798,7 +12798,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>334881</t>
+          <t>598709</t>
         </is>
       </c>
       <c r="C589" t="n">
@@ -12819,7 +12819,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>330660</t>
+          <t>306156</t>
         </is>
       </c>
       <c r="C590" t="n">
@@ -12840,7 +12840,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>150176</t>
+          <t>445012</t>
         </is>
       </c>
       <c r="C591" t="n">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>184979</t>
+          <t>171975</t>
         </is>
       </c>
       <c r="C592" t="n">
@@ -12882,7 +12882,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>327288</t>
+          <t>389361</t>
         </is>
       </c>
       <c r="C593" t="n">
@@ -12903,7 +12903,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>168766</t>
+          <t>305360</t>
         </is>
       </c>
       <c r="C594" t="n">
@@ -12924,7 +12924,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>316763</t>
+          <t>162907</t>
         </is>
       </c>
       <c r="C595" t="n">
@@ -12945,7 +12945,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>162248</t>
+          <t>442409</t>
         </is>
       </c>
       <c r="C596" t="n">
@@ -12966,7 +12966,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>313426</t>
+          <t>177071</t>
         </is>
       </c>
       <c r="C597" t="n">
@@ -12987,7 +12987,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>459696</t>
+          <t>312950</t>
         </is>
       </c>
       <c r="C598" t="n">
@@ -13008,7 +13008,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>163885</t>
+          <t>293170</t>
         </is>
       </c>
       <c r="C599" t="n">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>312228</t>
+          <t>522146</t>
         </is>
       </c>
       <c r="C600" t="n">
@@ -13050,7 +13050,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>511533</t>
+          <t>423224</t>
         </is>
       </c>
       <c r="C601" t="n">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>190286</t>
+          <t>429853</t>
         </is>
       </c>
       <c r="C602" t="n">
@@ -13092,7 +13092,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>318943</t>
+          <t>185974</t>
         </is>
       </c>
       <c r="C603" t="n">
@@ -13113,7 +13113,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>187314</t>
+          <t>186450</t>
         </is>
       </c>
       <c r="C604" t="n">
@@ -13134,7 +13134,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>163518</t>
+          <t>330667</t>
         </is>
       </c>
       <c r="C605" t="n">
@@ -13155,7 +13155,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>188941</t>
+          <t>141209</t>
         </is>
       </c>
       <c r="C606" t="n">
@@ -13176,7 +13176,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>173948</t>
+          <t>180083</t>
         </is>
       </c>
       <c r="C607" t="n">
@@ -13197,7 +13197,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>169939</t>
+          <t>151708</t>
         </is>
       </c>
       <c r="C608" t="n">
@@ -13218,7 +13218,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>315653</t>
+          <t>175475</t>
         </is>
       </c>
       <c r="C609" t="n">
@@ -13239,7 +13239,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>172123</t>
+          <t>298995</t>
         </is>
       </c>
       <c r="C610" t="n">
@@ -13260,7 +13260,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>181262</t>
+          <t>169050</t>
         </is>
       </c>
       <c r="C611" t="n">
@@ -13281,7 +13281,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>317052</t>
+          <t>313767</t>
         </is>
       </c>
       <c r="C612" t="n">
@@ -13302,7 +13302,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>164237</t>
+          <t>152138</t>
         </is>
       </c>
       <c r="C613" t="n">
@@ -13323,7 +13323,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>148961</t>
+          <t>338491</t>
         </is>
       </c>
       <c r="C614" t="n">
@@ -13344,7 +13344,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>293385</t>
+          <t>308376</t>
         </is>
       </c>
       <c r="C615" t="n">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>291843</t>
+          <t>421138</t>
         </is>
       </c>
       <c r="C616" t="n">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>460188</t>
+          <t>338506</t>
         </is>
       </c>
       <c r="C617" t="n">
@@ -13407,7 +13407,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>330803</t>
+          <t>369136</t>
         </is>
       </c>
       <c r="C618" t="n">
@@ -13428,7 +13428,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>291317</t>
+          <t>352645</t>
         </is>
       </c>
       <c r="C619" t="n">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>321758</t>
+          <t>163939</t>
         </is>
       </c>
       <c r="C620" t="n">
@@ -13470,7 +13470,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>163063</t>
+          <t>353798</t>
         </is>
       </c>
       <c r="C621" t="n">
@@ -13491,7 +13491,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>351849</t>
+          <t>120815</t>
         </is>
       </c>
       <c r="C622" t="n">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>291780</t>
+          <t>185444</t>
         </is>
       </c>
       <c r="C623" t="n">
@@ -13533,7 +13533,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>380745</t>
+          <t>177050</t>
         </is>
       </c>
       <c r="C624" t="n">
@@ -13554,7 +13554,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>174997</t>
+          <t>595274</t>
         </is>
       </c>
       <c r="C625" t="n">
@@ -13575,7 +13575,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>136752</t>
+          <t>595888</t>
         </is>
       </c>
       <c r="C626" t="n">
@@ -13596,7 +13596,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>180884</t>
+          <t>183844</t>
         </is>
       </c>
       <c r="C627" t="n">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>302795</t>
+          <t>457375</t>
         </is>
       </c>
       <c r="C628" t="n">
@@ -13638,7 +13638,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>126367</t>
+          <t>374835</t>
         </is>
       </c>
       <c r="C629" t="n">
@@ -13659,7 +13659,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>177099</t>
+          <t>316689</t>
         </is>
       </c>
       <c r="C630" t="n">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>180622</t>
+          <t>137978</t>
         </is>
       </c>
       <c r="C631" t="n">
@@ -13701,7 +13701,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>159607</t>
+          <t>308754</t>
         </is>
       </c>
       <c r="C632" t="n">
@@ -13722,7 +13722,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>310804</t>
+          <t>161301</t>
         </is>
       </c>
       <c r="C633" t="n">
@@ -13743,7 +13743,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>175503</t>
+          <t>176915</t>
         </is>
       </c>
       <c r="C634" t="n">
@@ -13764,7 +13764,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>349171</t>
+          <t>306788</t>
         </is>
       </c>
       <c r="C635" t="n">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>359496</t>
+          <t>303766</t>
         </is>
       </c>
       <c r="C636" t="n">
@@ -13806,7 +13806,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>174223</t>
+          <t>541523</t>
         </is>
       </c>
       <c r="C637" t="n">
@@ -13827,7 +13827,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>142720</t>
+          <t>324491</t>
         </is>
       </c>
       <c r="C638" t="n">
@@ -13848,7 +13848,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>317751</t>
+          <t>178303</t>
         </is>
       </c>
       <c r="C639" t="n">
@@ -13869,7 +13869,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>328680</t>
+          <t>292428</t>
         </is>
       </c>
       <c r="C640" t="n">
@@ -13890,7 +13890,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>317379</t>
+          <t>406638</t>
         </is>
       </c>
       <c r="C641" t="n">
@@ -13911,7 +13911,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>320961</t>
+          <t>169938</t>
         </is>
       </c>
       <c r="C642" t="n">
@@ -13932,7 +13932,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>137644</t>
+          <t>313780</t>
         </is>
       </c>
       <c r="C643" t="n">
@@ -13953,7 +13953,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>144746</t>
+          <t>330015</t>
         </is>
       </c>
       <c r="C644" t="n">
@@ -13974,7 +13974,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>188424</t>
+          <t>553784</t>
         </is>
       </c>
       <c r="C645" t="n">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>185012</t>
+          <t>178704</t>
         </is>
       </c>
       <c r="C646" t="n">
@@ -14016,7 +14016,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>508369</t>
+          <t>339876</t>
         </is>
       </c>
       <c r="C647" t="n">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>143465</t>
+          <t>332318</t>
         </is>
       </c>
       <c r="C648" t="n">
@@ -14058,7 +14058,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>170159</t>
+          <t>161625</t>
         </is>
       </c>
       <c r="C649" t="n">
@@ -14079,7 +14079,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>347809</t>
+          <t>360517</t>
         </is>
       </c>
       <c r="C650" t="n">
@@ -14100,7 +14100,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>166253</t>
+          <t>291738</t>
         </is>
       </c>
       <c r="C651" t="n">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>313780</t>
+          <t>292526</t>
         </is>
       </c>
       <c r="C652" t="n">
@@ -14142,7 +14142,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>291542</t>
+          <t>540906</t>
         </is>
       </c>
       <c r="C653" t="n">
@@ -14163,7 +14163,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>174360</t>
+          <t>306149</t>
         </is>
       </c>
       <c r="C654" t="n">
@@ -14184,7 +14184,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>298438</t>
+          <t>362659</t>
         </is>
       </c>
       <c r="C655" t="n">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>171745</t>
+          <t>406946</t>
         </is>
       </c>
       <c r="C656" t="n">
@@ -14226,7 +14226,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>339900</t>
+          <t>177885</t>
         </is>
       </c>
       <c r="C657" t="n">
@@ -14247,7 +14247,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>162504</t>
+          <t>345933</t>
         </is>
       </c>
       <c r="C658" t="n">
@@ -14268,7 +14268,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>185467</t>
+          <t>155991</t>
         </is>
       </c>
       <c r="C659" t="n">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>345876</t>
+          <t>450033</t>
         </is>
       </c>
       <c r="C660" t="n">
@@ -14310,7 +14310,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>459941</t>
+          <t>379065</t>
         </is>
       </c>
       <c r="C661" t="n">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="B662" t="inlineStr">
         <is>
-          <t>171685</t>
+          <t>356726</t>
         </is>
       </c>
       <c r="C662" t="n">
@@ -14352,7 +14352,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>363566</t>
+          <t>565462</t>
         </is>
       </c>
       <c r="C663" t="n">
@@ -14373,7 +14373,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>355362</t>
+          <t>453172</t>
         </is>
       </c>
       <c r="C664" t="n">
@@ -14394,7 +14394,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>141516</t>
+          <t>307366</t>
         </is>
       </c>
       <c r="C665" t="n">
@@ -14415,7 +14415,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>378661</t>
+          <t>360911</t>
         </is>
       </c>
       <c r="C666" t="n">
@@ -14436,7 +14436,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>412852</t>
+          <t>311336</t>
         </is>
       </c>
       <c r="C667" t="n">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>150642</t>
+          <t>182684</t>
         </is>
       </c>
       <c r="C668" t="n">
@@ -14478,7 +14478,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>318691</t>
+          <t>413284</t>
         </is>
       </c>
       <c r="C669" t="n">
@@ -14499,7 +14499,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>177853</t>
+          <t>316645</t>
         </is>
       </c>
       <c r="C670" t="n">
@@ -14520,7 +14520,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>459702</t>
+          <t>142720</t>
         </is>
       </c>
       <c r="C671" t="n">
@@ -14541,7 +14541,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>178827</t>
+          <t>345043</t>
         </is>
       </c>
       <c r="C672" t="n">
@@ -14562,7 +14562,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>172303</t>
+          <t>389307</t>
         </is>
       </c>
       <c r="C673" t="n">
@@ -14583,7 +14583,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>333705</t>
+          <t>190389</t>
         </is>
       </c>
       <c r="C674" t="n">
@@ -14604,7 +14604,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>177998</t>
+          <t>402852</t>
         </is>
       </c>
       <c r="C675" t="n">
@@ -14625,7 +14625,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>153189</t>
+          <t>405698</t>
         </is>
       </c>
       <c r="C676" t="n">
@@ -14646,7 +14646,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>403942</t>
+          <t>166274</t>
         </is>
       </c>
       <c r="C677" t="n">
@@ -14667,7 +14667,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>181437</t>
+          <t>183977</t>
         </is>
       </c>
       <c r="C678" t="n">
@@ -14688,7 +14688,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>368163</t>
+          <t>387150</t>
         </is>
       </c>
       <c r="C679" t="n">
@@ -14709,7 +14709,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>123823</t>
+          <t>137644</t>
         </is>
       </c>
       <c r="C680" t="n">
@@ -14730,7 +14730,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>387187</t>
+          <t>511533</t>
         </is>
       </c>
       <c r="C681" t="n">
@@ -14751,7 +14751,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>323843</t>
+          <t>318165</t>
         </is>
       </c>
       <c r="C682" t="n">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>354201</t>
+          <t>177749</t>
         </is>
       </c>
       <c r="C683" t="n">
@@ -14793,7 +14793,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>392189</t>
+          <t>324513</t>
         </is>
       </c>
       <c r="C684" t="n">
@@ -14814,7 +14814,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>170571</t>
+          <t>155193</t>
         </is>
       </c>
       <c r="C685" t="n">
@@ -14835,7 +14835,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>172411</t>
+          <t>450056</t>
         </is>
       </c>
       <c r="C686" t="n">
@@ -14856,7 +14856,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>191616</t>
+          <t>378851</t>
         </is>
       </c>
       <c r="C687" t="n">
@@ -14877,7 +14877,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>330886</t>
+          <t>413248</t>
         </is>
       </c>
       <c r="C688" t="n">
@@ -14898,7 +14898,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>345333</t>
+          <t>565374</t>
         </is>
       </c>
       <c r="C689" t="n">
@@ -14919,7 +14919,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>181254</t>
+          <t>307432</t>
         </is>
       </c>
       <c r="C690" t="n">
@@ -14940,7 +14940,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>292205</t>
+          <t>170077</t>
         </is>
       </c>
       <c r="C691" t="n">
@@ -14961,7 +14961,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>158402</t>
+          <t>404239</t>
         </is>
       </c>
       <c r="C692" t="n">
@@ -14982,7 +14982,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>300856</t>
+          <t>162504</t>
         </is>
       </c>
       <c r="C693" t="n">
@@ -15003,7 +15003,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>299026</t>
+          <t>150801</t>
         </is>
       </c>
       <c r="C694" t="n">
@@ -15024,7 +15024,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>188260</t>
+          <t>123823</t>
         </is>
       </c>
       <c r="C695" t="n">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>186467</t>
+          <t>176512</t>
         </is>
       </c>
       <c r="C696" t="n">
@@ -15066,7 +15066,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>352647</t>
+          <t>303187</t>
         </is>
       </c>
       <c r="C697" t="n">
@@ -15087,7 +15087,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>293180</t>
+          <t>343999</t>
         </is>
       </c>
       <c r="C698" t="n">
@@ -15108,7 +15108,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>380626</t>
+          <t>434393</t>
         </is>
       </c>
       <c r="C699" t="n">
@@ -15129,7 +15129,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>340620</t>
+          <t>381047</t>
         </is>
       </c>
       <c r="C700" t="n">
@@ -15150,7 +15150,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>374486</t>
+          <t>318682</t>
         </is>
       </c>
       <c r="C701" t="n">
@@ -15171,7 +15171,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>431054</t>
+          <t>597041</t>
         </is>
       </c>
       <c r="C702" t="n">
@@ -15192,7 +15192,7 @@
       </c>
       <c r="B703" t="inlineStr">
         <is>
-          <t>299208</t>
+          <t>144059</t>
         </is>
       </c>
       <c r="C703" t="n">
@@ -15213,7 +15213,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>136730</t>
+          <t>162248</t>
         </is>
       </c>
       <c r="C704" t="n">
@@ -15234,7 +15234,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>182550</t>
+          <t>300791</t>
         </is>
       </c>
       <c r="C705" t="n">
@@ -15255,7 +15255,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>154437</t>
+          <t>169835</t>
         </is>
       </c>
       <c r="C706" t="n">
@@ -15276,7 +15276,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>149233</t>
+          <t>375562</t>
         </is>
       </c>
       <c r="C707" t="n">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>317827</t>
+          <t>339259</t>
         </is>
       </c>
       <c r="C708" t="n">
@@ -15318,7 +15318,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>374375</t>
+          <t>183094</t>
         </is>
       </c>
       <c r="C709" t="n">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>393868</t>
+          <t>436395</t>
         </is>
       </c>
       <c r="C710" t="n">
@@ -15360,7 +15360,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>307574</t>
+          <t>317751</t>
         </is>
       </c>
       <c r="C711" t="n">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>126313</t>
+          <t>316640</t>
         </is>
       </c>
       <c r="C712" t="n">
@@ -15402,7 +15402,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>151291</t>
+          <t>535421</t>
         </is>
       </c>
       <c r="C713" t="n">
@@ -15423,7 +15423,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>335704</t>
+          <t>347221</t>
         </is>
       </c>
       <c r="C714" t="n">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>173650</t>
+          <t>465539</t>
         </is>
       </c>
       <c r="C715" t="n">
@@ -15465,7 +15465,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>355990</t>
+          <t>175560</t>
         </is>
       </c>
       <c r="C716" t="n">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>506420</t>
+          <t>318254</t>
         </is>
       </c>
       <c r="C717" t="n">
@@ -15507,7 +15507,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>344704</t>
+          <t>190417</t>
         </is>
       </c>
       <c r="C718" t="n">
@@ -15528,7 +15528,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>178875</t>
+          <t>364085</t>
         </is>
       </c>
       <c r="C719" t="n">
@@ -15549,7 +15549,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>153030</t>
+          <t>137990</t>
         </is>
       </c>
       <c r="C720" t="n">
@@ -15570,7 +15570,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>129292</t>
+          <t>165065</t>
         </is>
       </c>
       <c r="C721" t="n">
@@ -15591,7 +15591,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>163448</t>
+          <t>178620</t>
         </is>
       </c>
       <c r="C722" t="n">
@@ -15612,7 +15612,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>376921</t>
+          <t>318957</t>
         </is>
       </c>
       <c r="C723" t="n">
@@ -15626,300 +15626,6 @@
       </c>
       <c r="F723" t="inlineStr"/>
       <c r="G723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="B724" t="inlineStr">
-        <is>
-          <t>161941</t>
-        </is>
-      </c>
-      <c r="C724" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D724" t="n">
-        <v>25</v>
-      </c>
-      <c r="E724" t="n">
-        <v>50</v>
-      </c>
-      <c r="F724" t="inlineStr"/>
-      <c r="G724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>723</v>
-      </c>
-      <c r="B725" t="inlineStr">
-        <is>
-          <t>335611</t>
-        </is>
-      </c>
-      <c r="C725" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D725" t="n">
-        <v>25</v>
-      </c>
-      <c r="E725" t="n">
-        <v>50</v>
-      </c>
-      <c r="F725" t="inlineStr"/>
-      <c r="G725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B726" t="inlineStr">
-        <is>
-          <t>186128</t>
-        </is>
-      </c>
-      <c r="C726" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D726" t="n">
-        <v>25</v>
-      </c>
-      <c r="E726" t="n">
-        <v>50</v>
-      </c>
-      <c r="F726" t="inlineStr"/>
-      <c r="G726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="inlineStr">
-        <is>
-          <t>148994</t>
-        </is>
-      </c>
-      <c r="C727" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D727" t="n">
-        <v>25</v>
-      </c>
-      <c r="E727" t="n">
-        <v>50</v>
-      </c>
-      <c r="F727" t="inlineStr"/>
-      <c r="G727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>137705</t>
-        </is>
-      </c>
-      <c r="C728" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D728" t="n">
-        <v>25</v>
-      </c>
-      <c r="E728" t="n">
-        <v>50</v>
-      </c>
-      <c r="F728" t="inlineStr"/>
-      <c r="G728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>182423</t>
-        </is>
-      </c>
-      <c r="C729" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D729" t="n">
-        <v>25</v>
-      </c>
-      <c r="E729" t="n">
-        <v>50</v>
-      </c>
-      <c r="F729" t="inlineStr"/>
-      <c r="G729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="inlineStr">
-        <is>
-          <t>385744</t>
-        </is>
-      </c>
-      <c r="C730" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D730" t="n">
-        <v>25</v>
-      </c>
-      <c r="E730" t="n">
-        <v>50</v>
-      </c>
-      <c r="F730" t="inlineStr"/>
-      <c r="G730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="inlineStr">
-        <is>
-          <t>172817</t>
-        </is>
-      </c>
-      <c r="C731" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D731" t="n">
-        <v>25</v>
-      </c>
-      <c r="E731" t="n">
-        <v>50</v>
-      </c>
-      <c r="F731" t="inlineStr"/>
-      <c r="G731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="inlineStr">
-        <is>
-          <t>301087</t>
-        </is>
-      </c>
-      <c r="C732" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D732" t="n">
-        <v>25</v>
-      </c>
-      <c r="E732" t="n">
-        <v>50</v>
-      </c>
-      <c r="F732" t="inlineStr"/>
-      <c r="G732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="inlineStr">
-        <is>
-          <t>185679</t>
-        </is>
-      </c>
-      <c r="C733" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D733" t="n">
-        <v>25</v>
-      </c>
-      <c r="E733" t="n">
-        <v>50</v>
-      </c>
-      <c r="F733" t="inlineStr"/>
-      <c r="G733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="inlineStr">
-        <is>
-          <t>291380</t>
-        </is>
-      </c>
-      <c r="C734" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D734" t="n">
-        <v>25</v>
-      </c>
-      <c r="E734" t="n">
-        <v>50</v>
-      </c>
-      <c r="F734" t="inlineStr"/>
-      <c r="G734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="inlineStr">
-        <is>
-          <t>145298</t>
-        </is>
-      </c>
-      <c r="C735" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D735" t="n">
-        <v>25</v>
-      </c>
-      <c r="E735" t="n">
-        <v>50</v>
-      </c>
-      <c r="F735" t="inlineStr"/>
-      <c r="G735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="inlineStr">
-        <is>
-          <t>174348</t>
-        </is>
-      </c>
-      <c r="C736" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D736" t="n">
-        <v>25</v>
-      </c>
-      <c r="E736" t="n">
-        <v>50</v>
-      </c>
-      <c r="F736" t="inlineStr"/>
-      <c r="G736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="inlineStr">
-        <is>
-          <t>309644</t>
-        </is>
-      </c>
-      <c r="C737" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D737" t="n">
-        <v>25</v>
-      </c>
-      <c r="E737" t="n">
-        <v>50</v>
-      </c>
-      <c r="F737" t="inlineStr"/>
-      <c r="G737" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
